--- a/Erika Signal (Edited) Operations Assistant Selection Test - Data.xlsx
+++ b/Erika Signal (Edited) Operations Assistant Selection Test - Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="460" windowWidth="23640" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="480" windowWidth="23640" windowHeight="16260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client Activities - Jibble Repo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="105">
   <si>
     <t>Team Name:</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Salary/month (CAD)</t>
-  </si>
-  <si>
     <t>Salary/hour</t>
   </si>
   <si>
@@ -508,7 +505,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -571,9 +568,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -586,20 +580,26 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -884,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:BX68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -895,7 +895,9 @@
     <col min="4" max="33" width="0" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="14.5" style="23"/>
     <col min="37" max="37" width="22" style="23" customWidth="1"/>
-    <col min="38" max="39" width="14.5" style="23"/>
+    <col min="38" max="38" width="14.5" style="23"/>
+    <col min="39" max="39" width="14.5" style="53"/>
+    <col min="40" max="40" width="14.5" style="54"/>
     <col min="44" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,19 +980,19 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
+      <c r="AI2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
     </row>
     <row r="3" spans="1:76" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1031,15 +1033,15 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
     </row>
     <row r="4" spans="1:76" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1080,15 +1082,15 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
     </row>
     <row r="5" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -1230,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="AI6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AJ6" s="30" t="s">
-        <v>95</v>
-      </c>
       <c r="AK6" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" s="30" t="s">
         <v>98</v>
-      </c>
-      <c r="AL6" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>13</v>
@@ -1344,10 +1346,10 @@
         <v>22</v>
       </c>
       <c r="BW6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX6" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="BX6" s="30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -1457,15 +1459,15 @@
       </c>
       <c r="AJ7" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="AK7" s="24">
-        <f>AH7*AI7</f>
+        <f t="shared" ref="AK7:AK13" si="0">AH7*AI7</f>
         <v>16119.999999999998</v>
       </c>
       <c r="AL7" s="24">
-        <f>AH7*AJ7</f>
-        <v>5247.3958333333321</v>
+        <f t="shared" ref="AL7:AL13" si="1">AH7*AJ7</f>
+        <v>4843.75</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>23</v>
@@ -1573,7 +1575,7 @@
       </c>
       <c r="BX7" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
     </row>
     <row r="8" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -1683,15 +1685,15 @@
       </c>
       <c r="AJ8" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AK8" s="24">
-        <f>AH8*AI8</f>
+        <f t="shared" si="0"/>
         <v>11946</v>
       </c>
       <c r="AL8" s="24">
-        <f>AH8*AJ8</f>
-        <v>3422.0312499999995</v>
+        <f t="shared" si="1"/>
+        <v>3158.7980769230767</v>
       </c>
       <c r="AO8" s="22"/>
       <c r="AP8" s="2" t="s">
@@ -1799,7 +1801,7 @@
       </c>
       <c r="BX8" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
     </row>
     <row r="9" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -1909,15 +1911,15 @@
       </c>
       <c r="AJ9" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK9" s="24">
-        <f>AH9*AI9</f>
+        <f t="shared" si="0"/>
         <v>12182.400000000001</v>
       </c>
       <c r="AL9" s="24">
-        <f>AH9*AJ9</f>
-        <v>3525.0000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3253.8461538461543</v>
       </c>
       <c r="AO9" s="2" t="s">
         <v>27</v>
@@ -2025,7 +2027,7 @@
       </c>
       <c r="BX9" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
     </row>
     <row r="10" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -2135,15 +2137,15 @@
       </c>
       <c r="AJ10" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AK10" s="24">
-        <f>AH10*AI10</f>
+        <f t="shared" si="0"/>
         <v>1282.4000000000001</v>
       </c>
       <c r="AL10" s="24">
-        <f>AH10*AJ10</f>
-        <v>400.75</v>
+        <f t="shared" si="1"/>
+        <v>369.92307692307696</v>
       </c>
       <c r="AO10" s="22"/>
       <c r="AP10" s="2" t="s">
@@ -2251,7 +2253,7 @@
       </c>
       <c r="BX10" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
     </row>
     <row r="11" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -2361,15 +2363,15 @@
       </c>
       <c r="AJ11" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AK11" s="24">
-        <f>AH11*AI11</f>
+        <f t="shared" si="0"/>
         <v>11001</v>
       </c>
       <c r="AL11" s="24">
-        <f>AH11*AJ11</f>
-        <v>4583.7500000000009</v>
+        <f t="shared" si="1"/>
+        <v>4231.1538461538457</v>
       </c>
       <c r="AO11" s="2" t="s">
         <v>28</v>
@@ -2477,7 +2479,7 @@
       </c>
       <c r="BX11" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="12" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -2587,15 +2589,15 @@
       </c>
       <c r="AJ12" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AK12" s="24">
-        <f>AH12*AI12</f>
+        <f t="shared" si="0"/>
         <v>13800</v>
       </c>
       <c r="AL12" s="24">
-        <f>AH12*AJ12</f>
-        <v>3893.2291666666674</v>
+        <f t="shared" si="1"/>
+        <v>3593.75</v>
       </c>
       <c r="AO12" s="22"/>
       <c r="AP12" s="2" t="s">
@@ -2703,7 +2705,7 @@
       </c>
       <c r="BX12" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="13" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -2813,15 +2815,15 @@
       </c>
       <c r="AJ13" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AK13" s="24">
-        <f>AH13*AI13</f>
+        <f t="shared" si="0"/>
         <v>12801.6</v>
       </c>
       <c r="AL13" s="24">
-        <f>AH13*AJ13</f>
-        <v>4445</v>
+        <f t="shared" si="1"/>
+        <v>4103.0769230769238</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>29</v>
@@ -2929,7 +2931,7 @@
       </c>
       <c r="BX13" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -2969,13 +2971,21 @@
       <c r="AH14" s="16"/>
       <c r="AI14" s="24"/>
       <c r="AJ14" s="24"/>
-      <c r="AK14" s="46">
+      <c r="AK14" s="45">
         <f>SUM(AK7:AK13)</f>
         <v>79133.400000000009</v>
       </c>
-      <c r="AL14" s="46">
+      <c r="AL14" s="45">
         <f>SUM(AL7:AL13)</f>
-        <v>25517.15625</v>
+        <v>23554.298076923078</v>
+      </c>
+      <c r="AM14" s="53">
+        <f>50000-AL14</f>
+        <v>26445.701923076922</v>
+      </c>
+      <c r="AN14" s="55">
+        <f>AM14/50000</f>
+        <v>0.52891403846153839</v>
       </c>
       <c r="AO14" s="22"/>
       <c r="AP14" s="2" t="s">
@@ -3083,7 +3093,7 @@
       </c>
       <c r="BX14" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
     </row>
     <row r="15" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -3193,7 +3203,7 @@
       </c>
       <c r="AJ15" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AK15" s="24">
         <f>AH15*AI15</f>
@@ -3201,7 +3211,7 @@
       </c>
       <c r="AL15" s="24">
         <f>AH15*AJ15</f>
-        <v>5813.776041666667</v>
+        <v>5366.5625</v>
       </c>
       <c r="AO15" s="2" t="s">
         <v>31</v>
@@ -3309,7 +3319,7 @@
       </c>
       <c r="BX15" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="16" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -3419,7 +3429,7 @@
       </c>
       <c r="AJ16" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK16" s="24">
         <f>AH16*AI16</f>
@@ -3427,7 +3437,7 @@
       </c>
       <c r="AL16" s="24">
         <f>AH16*AJ16</f>
-        <v>3945.8333333333339</v>
+        <v>3642.3076923076928</v>
       </c>
       <c r="AO16" s="22"/>
       <c r="AP16" s="2" t="s">
@@ -3535,7 +3545,7 @@
       </c>
       <c r="BX16" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="17" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -3645,7 +3655,7 @@
       </c>
       <c r="AJ17" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK17" s="24">
         <f>AH17*AI17</f>
@@ -3653,7 +3663,7 @@
       </c>
       <c r="AL17" s="24">
         <f>AH17*AJ17</f>
-        <v>2968.75</v>
+        <v>2740.3846153846157</v>
       </c>
       <c r="AO17" s="2" t="s">
         <v>34</v>
@@ -3761,7 +3771,7 @@
       </c>
       <c r="BX17" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
     </row>
     <row r="18" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -3871,7 +3881,7 @@
       </c>
       <c r="AJ18" s="24">
         <f>'Employee Salaries'!$E$34</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AK18" s="24">
         <f>AH18*AI18</f>
@@ -3879,7 +3889,7 @@
       </c>
       <c r="AL18" s="24">
         <f>AH18*AJ18</f>
-        <v>5343.125</v>
+        <v>4932.1153846153848</v>
       </c>
       <c r="AO18" s="22"/>
       <c r="AP18" s="2" t="s">
@@ -3987,7 +3997,7 @@
       </c>
       <c r="BX18" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
     </row>
     <row r="19" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -4097,7 +4107,7 @@
       </c>
       <c r="AJ19" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="AK19" s="24">
         <f>AH19*AI19</f>
@@ -4105,7 +4115,7 @@
       </c>
       <c r="AL19" s="24">
         <f>AH19*AJ19</f>
-        <v>4680.5625</v>
+        <v>4320.5192307692305</v>
       </c>
       <c r="AO19" s="2" t="s">
         <v>36</v>
@@ -4213,7 +4223,7 @@
       </c>
       <c r="BX19" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
     </row>
     <row r="20" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -4253,13 +4263,21 @@
       <c r="AH20" s="16"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
-      <c r="AK20" s="46">
+      <c r="AK20" s="45">
         <f>SUM(AK15:AK19)</f>
         <v>75949.8</v>
       </c>
-      <c r="AL20" s="46">
+      <c r="AL20" s="45">
         <f>SUM(AL15:AL19)</f>
-        <v>22752.046875</v>
+        <v>21001.889423076926</v>
+      </c>
+      <c r="AM20" s="53">
+        <f>50000-AL20</f>
+        <v>28998.110576923074</v>
+      </c>
+      <c r="AN20" s="55">
+        <f>AM20/50000</f>
+        <v>0.5799622115384615</v>
       </c>
       <c r="AO20" s="22"/>
       <c r="AP20" s="2" t="s">
@@ -4367,7 +4385,7 @@
       </c>
       <c r="BX20" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
     </row>
     <row r="21" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -4477,12 +4495,15 @@
       </c>
       <c r="AJ21" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="AK21" s="24"/>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="AK21" s="24">
+        <f t="shared" ref="AK21:AK27" si="2">AH21*AI21</f>
+        <v>80</v>
+      </c>
       <c r="AL21" s="24">
-        <f>AH21*AJ21</f>
-        <v>20.833333333333336</v>
+        <f t="shared" ref="AL21:AL27" si="3">AH21*AJ21</f>
+        <v>19.230769230769234</v>
       </c>
       <c r="AO21" s="22"/>
       <c r="AP21" s="2" t="s">
@@ -4590,7 +4611,7 @@
       </c>
       <c r="BX21" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
     </row>
     <row r="22" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -4700,12 +4721,15 @@
       </c>
       <c r="AJ22" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
-      </c>
-      <c r="AK22" s="24"/>
+        <v>32.21153846153846</v>
+      </c>
+      <c r="AK22" s="24">
+        <f t="shared" si="2"/>
+        <v>9975</v>
+      </c>
       <c r="AL22" s="24">
-        <f>AH22*AJ22</f>
-        <v>3480.8593749999995</v>
+        <f t="shared" si="3"/>
+        <v>3213.1009615384614</v>
       </c>
       <c r="AO22" s="2" t="s">
         <v>37</v>
@@ -4813,7 +4837,7 @@
       </c>
       <c r="BX22" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="23" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -4923,12 +4947,15 @@
       </c>
       <c r="AJ23" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
-      </c>
-      <c r="AK23" s="24"/>
+        <v>22.596153846153847</v>
+      </c>
+      <c r="AK23" s="24">
+        <f t="shared" si="2"/>
+        <v>2110.5</v>
+      </c>
       <c r="AL23" s="24">
-        <f>AH23*AJ23</f>
-        <v>574.03645833333326</v>
+        <f t="shared" si="3"/>
+        <v>529.87980769230774</v>
       </c>
       <c r="AO23" s="22"/>
       <c r="AP23" s="2" t="s">
@@ -5036,7 +5063,7 @@
       </c>
       <c r="BX23" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="24" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -5146,12 +5173,15 @@
       </c>
       <c r="AJ24" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
-      </c>
-      <c r="AK24" s="24"/>
+        <v>24.51923076923077</v>
+      </c>
+      <c r="AK24" s="24">
+        <f t="shared" si="2"/>
+        <v>614</v>
+      </c>
       <c r="AL24" s="24">
-        <f>AH24*AJ24</f>
-        <v>163.09375</v>
+        <f t="shared" si="3"/>
+        <v>150.54807692307693</v>
       </c>
       <c r="AO24" s="2" t="s">
         <v>40</v>
@@ -5259,7 +5289,7 @@
       </c>
       <c r="BX24" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="25" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -5369,12 +5399,15 @@
       </c>
       <c r="AJ25" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
-      </c>
-      <c r="AK25" s="24"/>
+        <v>33.653846153846153</v>
+      </c>
+      <c r="AK25" s="24">
+        <f t="shared" si="2"/>
+        <v>16052.000000000002</v>
+      </c>
       <c r="AL25" s="24">
-        <f>AH25*AJ25</f>
-        <v>5852.2916666666661</v>
+        <f t="shared" si="3"/>
+        <v>5402.1153846153848</v>
       </c>
       <c r="AO25" s="22"/>
       <c r="AP25" s="2" t="s">
@@ -5482,7 +5515,7 @@
       </c>
       <c r="BX25" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="26" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -5592,12 +5625,15 @@
       </c>
       <c r="AJ26" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
-      </c>
-      <c r="AK26" s="24"/>
+        <v>23.557692307692307</v>
+      </c>
+      <c r="AK26" s="24">
+        <f t="shared" si="2"/>
+        <v>11489.6</v>
+      </c>
       <c r="AL26" s="24">
-        <f>AH26*AJ26</f>
-        <v>3665.3020833333339</v>
+        <f t="shared" si="3"/>
+        <v>3383.3557692307691</v>
       </c>
       <c r="AO26" s="22"/>
       <c r="AP26" s="2" t="s">
@@ -5705,7 +5741,7 @@
       </c>
       <c r="BX26" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="27" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -5815,12 +5851,15 @@
       </c>
       <c r="AJ27" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="AK27" s="24"/>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="AK27" s="24">
+        <f t="shared" si="2"/>
+        <v>178.20000000000002</v>
+      </c>
       <c r="AL27" s="24">
-        <f>AH27*AJ27</f>
-        <v>42.187500000000007</v>
+        <f t="shared" si="3"/>
+        <v>38.942307692307701</v>
       </c>
       <c r="AO27" s="2" t="s">
         <v>42</v>
@@ -5928,7 +5967,7 @@
       </c>
       <c r="BX27" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
     </row>
     <row r="28" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -5968,10 +6007,21 @@
       <c r="AH28" s="16"/>
       <c r="AI28" s="24"/>
       <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="46">
+      <c r="AK28" s="44">
+        <f>SUM(AK21:AK27)</f>
+        <v>40499.299999999996</v>
+      </c>
+      <c r="AL28" s="45">
         <f>SUM(AL21:AL27)</f>
-        <v>13798.604166666666</v>
+        <v>12737.173076923078</v>
+      </c>
+      <c r="AM28" s="53">
+        <f>AK28-AL28</f>
+        <v>27762.126923076918</v>
+      </c>
+      <c r="AN28" s="55">
+        <f>AM28/AK28</f>
+        <v>0.68549646347163828</v>
       </c>
       <c r="AO28" s="22"/>
       <c r="AP28" s="2" t="s">
@@ -6079,7 +6129,7 @@
       </c>
       <c r="BX28" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
     </row>
     <row r="29" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -6189,12 +6239,15 @@
       </c>
       <c r="AJ29" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
-      </c>
-      <c r="AK29" s="24"/>
+        <v>34.134615384615387</v>
+      </c>
+      <c r="AK29" s="24">
+        <f t="shared" ref="AK29:AK38" si="4">AH29*AI29</f>
+        <v>1854</v>
+      </c>
       <c r="AL29" s="24">
-        <f>AH29*AJ29</f>
-        <v>571.328125</v>
+        <f t="shared" ref="AL29:AL38" si="5">AH29*AJ29</f>
+        <v>527.37980769230774</v>
       </c>
       <c r="AO29" s="2" t="s">
         <v>43</v>
@@ -6302,7 +6355,7 @@
       </c>
       <c r="BX29" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="30" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -6412,12 +6465,15 @@
       </c>
       <c r="AJ30" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
-      </c>
-      <c r="AK30" s="24"/>
+        <v>26.442307692307693</v>
+      </c>
+      <c r="AK30" s="24">
+        <f t="shared" si="4"/>
+        <v>1080</v>
+      </c>
       <c r="AL30" s="24">
-        <f>AH30*AJ30</f>
-        <v>309.375</v>
+        <f t="shared" si="5"/>
+        <v>285.57692307692309</v>
       </c>
       <c r="AO30" s="22"/>
       <c r="AP30" s="2" t="s">
@@ -6525,7 +6581,7 @@
       </c>
       <c r="BX30" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="31" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -6635,12 +6691,15 @@
       </c>
       <c r="AJ31" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
-      </c>
-      <c r="AK31" s="24"/>
+        <v>32.21153846153846</v>
+      </c>
+      <c r="AK31" s="24">
+        <f t="shared" si="4"/>
+        <v>5299</v>
+      </c>
       <c r="AL31" s="24">
-        <f>AH31*AJ31</f>
-        <v>1849.1302083333333</v>
+        <f t="shared" si="5"/>
+        <v>1706.8894230769231</v>
       </c>
       <c r="AO31" s="2" t="s">
         <v>48</v>
@@ -6748,7 +6807,7 @@
       </c>
       <c r="BX31" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
     </row>
     <row r="32" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -6858,12 +6917,15 @@
       </c>
       <c r="AJ32" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
-      </c>
-      <c r="AK32" s="24"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="AK32" s="24">
+        <f t="shared" si="4"/>
+        <v>8820</v>
+      </c>
       <c r="AL32" s="24">
-        <f>AH32*AJ32</f>
-        <v>2756.25</v>
+        <f t="shared" si="5"/>
+        <v>2544.2307692307691</v>
       </c>
       <c r="AO32" s="22"/>
       <c r="AP32" s="2" t="s">
@@ -6971,7 +7033,7 @@
       </c>
       <c r="BX32" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
     </row>
     <row r="33" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -7081,12 +7143,15 @@
       </c>
       <c r="AJ33" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
-      </c>
-      <c r="AK33" s="24"/>
+        <v>22.115384615384617</v>
+      </c>
+      <c r="AK33" s="24">
+        <f t="shared" si="4"/>
+        <v>555</v>
+      </c>
       <c r="AL33" s="24">
-        <f>AH33*AJ33</f>
-        <v>132.96875</v>
+        <f t="shared" si="5"/>
+        <v>122.74038461538461</v>
       </c>
       <c r="AO33" s="2" t="s">
         <v>49</v>
@@ -7194,7 +7259,7 @@
       </c>
       <c r="BX33" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
     </row>
     <row r="34" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -7304,12 +7369,15 @@
       </c>
       <c r="AJ34" s="24">
         <f>'Employee Salaries'!$E$40</f>
-        <v>31.25</v>
-      </c>
-      <c r="AK34" s="24"/>
+        <v>28.846153846153847</v>
+      </c>
+      <c r="AK34" s="24">
+        <f t="shared" si="4"/>
+        <v>3310.2000000000003</v>
+      </c>
       <c r="AL34" s="24">
-        <f>AH34*AJ34</f>
-        <v>1149.375</v>
+        <f t="shared" si="5"/>
+        <v>1060.9615384615386</v>
       </c>
       <c r="AO34" s="22"/>
       <c r="AP34" s="2" t="s">
@@ -7417,7 +7485,7 @@
       </c>
       <c r="BX34" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
     </row>
     <row r="35" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -7527,12 +7595,15 @@
       </c>
       <c r="AJ35" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
-      </c>
-      <c r="AK35" s="24"/>
+        <v>32.21153846153846</v>
+      </c>
+      <c r="AK35" s="24">
+        <f t="shared" si="4"/>
+        <v>3121</v>
+      </c>
       <c r="AL35" s="24">
-        <f>AH35*AJ35</f>
-        <v>1089.0989583333333</v>
+        <f t="shared" si="5"/>
+        <v>1005.3221153846154</v>
       </c>
       <c r="AO35" s="2" t="s">
         <v>51</v>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="BX35" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="36" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -7750,12 +7821,15 @@
       </c>
       <c r="AJ36" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AK36" s="24"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="AK36" s="24">
+        <f t="shared" si="4"/>
+        <v>1202.3999999999999</v>
+      </c>
       <c r="AL36" s="24">
-        <f>AH36*AJ36</f>
-        <v>333.99999999999994</v>
+        <f t="shared" si="5"/>
+        <v>308.30769230769232</v>
       </c>
       <c r="AO36" s="22"/>
       <c r="AP36" s="2" t="s">
@@ -7863,7 +7937,7 @@
       </c>
       <c r="BX36" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="37" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -7973,12 +8047,15 @@
       </c>
       <c r="AJ37" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
-      </c>
-      <c r="AK37" s="24"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="AK37" s="24">
+        <f t="shared" si="4"/>
+        <v>13033.000000000002</v>
+      </c>
       <c r="AL37" s="24">
-        <f>AH37*AJ37</f>
-        <v>4887.3750000000009</v>
+        <f t="shared" si="5"/>
+        <v>4511.4230769230771</v>
       </c>
       <c r="AO37" s="2" t="s">
         <v>55</v>
@@ -8086,7 +8163,7 @@
       </c>
       <c r="BX37" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
     </row>
     <row r="38" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -8196,12 +8273,15 @@
       </c>
       <c r="AJ38" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
-      </c>
-      <c r="AK38" s="24"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="AK38" s="24">
+        <f t="shared" si="4"/>
+        <v>2280.3000000000002</v>
+      </c>
       <c r="AL38" s="24">
-        <f>AH38*AJ38</f>
-        <v>518.25</v>
+        <f t="shared" si="5"/>
+        <v>478.38461538461542</v>
       </c>
       <c r="AO38" s="22"/>
       <c r="AP38" s="2" t="s">
@@ -8309,7 +8389,7 @@
       </c>
       <c r="BX38" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
     </row>
     <row r="39" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -8349,10 +8429,21 @@
       <c r="AH39" s="16"/>
       <c r="AI39" s="24"/>
       <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="46">
+      <c r="AK39" s="44">
+        <f>SUM(AK29:AK38)</f>
+        <v>40554.900000000009</v>
+      </c>
+      <c r="AL39" s="45">
         <f>SUM(AL29:AL38)</f>
-        <v>13597.151041666668</v>
+        <v>12551.216346153846</v>
+      </c>
+      <c r="AM39" s="53">
+        <f>AK39-AL39</f>
+        <v>28003.683653846165</v>
+      </c>
+      <c r="AN39" s="55">
+        <f>AM39/AK39</f>
+        <v>0.69051295044115901</v>
       </c>
       <c r="AO39" s="2" t="s">
         <v>58</v>
@@ -8460,7 +8551,7 @@
       </c>
       <c r="BX39" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="40" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -8570,7 +8661,7 @@
       </c>
       <c r="AJ40" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="AK40" s="24"/>
       <c r="AL40" s="24"/>
@@ -8680,7 +8771,7 @@
       </c>
       <c r="BX40" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="41" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -8790,10 +8881,24 @@
       </c>
       <c r="AJ41" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
-      </c>
-      <c r="AK41" s="24"/>
-      <c r="AL41" s="24"/>
+        <v>34.134615384615387</v>
+      </c>
+      <c r="AK41" s="24">
+        <f>AK14+AK20+AK28+AK39</f>
+        <v>236137.40000000002</v>
+      </c>
+      <c r="AL41" s="24">
+        <f>AL14+AL20+AL28+AL39</f>
+        <v>69844.576923076922</v>
+      </c>
+      <c r="AM41" s="53">
+        <f>AM14+AM20+AM28+AM39</f>
+        <v>111209.62307692309</v>
+      </c>
+      <c r="AN41" s="55">
+        <f>AM41/AK41</f>
+        <v>0.47095302597946398</v>
+      </c>
       <c r="AO41" s="2" t="s">
         <v>59</v>
       </c>
@@ -8900,7 +9005,7 @@
       </c>
       <c r="BX41" s="24">
         <f>'Employee Salaries'!$E$34</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="42" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -9010,7 +9115,7 @@
       </c>
       <c r="AJ42" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK42" s="24"/>
       <c r="AL42" s="24"/>
@@ -9120,7 +9225,7 @@
       </c>
       <c r="BX42" s="24">
         <f>'Employee Salaries'!$E$34</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="43" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -9230,10 +9335,13 @@
       </c>
       <c r="AJ43" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AK43" s="24"/>
-      <c r="AL43" s="24"/>
+      <c r="AL43" s="24">
+        <f>194151.35-69844.58</f>
+        <v>124306.77</v>
+      </c>
       <c r="AO43" s="2" t="s">
         <v>60</v>
       </c>
@@ -9340,7 +9448,7 @@
       </c>
       <c r="BX43" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
     </row>
     <row r="44" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -9450,10 +9558,13 @@
       </c>
       <c r="AJ44" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
+      <c r="AL44" s="48">
+        <f>AL43/194151.35</f>
+        <v>0.64025704688635954</v>
+      </c>
       <c r="AO44" s="22"/>
       <c r="AP44" s="2" t="s">
         <v>21</v>
@@ -9560,7 +9671,7 @@
       </c>
       <c r="BX44" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
     </row>
     <row r="45" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -9670,7 +9781,7 @@
       </c>
       <c r="AJ45" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AK45" s="24"/>
       <c r="AL45" s="24"/>
@@ -9780,7 +9891,7 @@
       </c>
       <c r="BX45" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="46" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -9890,7 +10001,7 @@
       </c>
       <c r="AJ46" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AK46" s="24"/>
       <c r="AL46" s="24"/>
@@ -10000,7 +10111,7 @@
       </c>
       <c r="BX46" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="47" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -10110,7 +10221,7 @@
       </c>
       <c r="AJ47" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK47" s="24"/>
       <c r="AL47" s="24"/>
@@ -10220,7 +10331,7 @@
       </c>
       <c r="BX47" s="24">
         <f>'Employee Salaries'!$E$40</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="48" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -10330,7 +10441,7 @@
       </c>
       <c r="AJ48" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AK48" s="24"/>
       <c r="AL48" s="24"/>
@@ -10440,7 +10551,7 @@
       </c>
       <c r="BX48" s="24">
         <f>'Employee Salaries'!$E$40</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="49" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -10550,7 +10661,7 @@
       </c>
       <c r="AJ49" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="AK49" s="24"/>
       <c r="AL49" s="24"/>
@@ -10660,7 +10771,7 @@
       </c>
       <c r="BX49" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="50" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -10770,7 +10881,7 @@
       </c>
       <c r="AJ50" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK50" s="24"/>
       <c r="AL50" s="24"/>
@@ -10880,7 +10991,7 @@
       </c>
       <c r="BX50" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
     </row>
     <row r="51" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -10990,7 +11101,7 @@
       </c>
       <c r="AJ51" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="AK51" s="24"/>
       <c r="AL51" s="24"/>
@@ -11100,7 +11211,7 @@
       </c>
       <c r="BX51" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
     </row>
     <row r="52" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -11210,7 +11321,7 @@
       </c>
       <c r="AJ52" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="AK52" s="24"/>
       <c r="AL52" s="24"/>
@@ -11320,7 +11431,7 @@
       </c>
       <c r="BX52" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
     </row>
     <row r="53" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -11430,7 +11541,7 @@
       </c>
       <c r="AJ53" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AK53" s="24"/>
       <c r="AL53" s="24"/>
@@ -11540,7 +11651,7 @@
       </c>
       <c r="BX53" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="54" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -11650,7 +11761,7 @@
       </c>
       <c r="AJ54" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="AK54" s="24"/>
       <c r="AL54" s="24"/>
@@ -11760,7 +11871,7 @@
       </c>
       <c r="BX54" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="55" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -11870,7 +11981,7 @@
       </c>
       <c r="AJ55" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
@@ -11980,7 +12091,7 @@
       </c>
       <c r="BX55" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="56" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -12090,7 +12201,7 @@
       </c>
       <c r="AJ56" s="24">
         <f>'Employee Salaries'!$E$34</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AK56" s="24"/>
       <c r="AL56" s="24"/>
@@ -12200,7 +12311,7 @@
       </c>
       <c r="BX56" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="57" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -12310,7 +12421,7 @@
       </c>
       <c r="AJ57" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
       <c r="AK57" s="24"/>
       <c r="AL57" s="24"/>
@@ -12420,7 +12531,7 @@
       </c>
       <c r="BX57" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
     </row>
     <row r="58" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -12530,7 +12641,7 @@
       </c>
       <c r="AJ58" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AK58" s="24"/>
       <c r="AL58" s="24"/>
@@ -12640,7 +12751,7 @@
       </c>
       <c r="BX58" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
     </row>
     <row r="59" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -12750,7 +12861,7 @@
       </c>
       <c r="AJ59" s="24">
         <f>'Employee Salaries'!$E$40</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AK59" s="24"/>
       <c r="AL59" s="24"/>
@@ -12860,7 +12971,7 @@
       </c>
       <c r="BX59" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="60" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -12970,7 +13081,7 @@
       </c>
       <c r="AJ60" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AK60" s="24"/>
       <c r="AL60" s="24"/>
@@ -13080,7 +13191,7 @@
       </c>
       <c r="BX60" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="61" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -13190,7 +13301,7 @@
       </c>
       <c r="AJ61" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AK61" s="24"/>
       <c r="AL61" s="24"/>
@@ -13300,7 +13411,7 @@
       </c>
       <c r="BX61" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="62" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -13410,7 +13521,7 @@
       </c>
       <c r="AJ62" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="AK62" s="24"/>
       <c r="AL62" s="24"/>
@@ -13520,7 +13631,7 @@
       </c>
       <c r="BX62" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="63" spans="1:76" ht="16" x14ac:dyDescent="0.2">
@@ -13630,7 +13741,7 @@
       </c>
       <c r="AJ63" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="AK63"/>
       <c r="AL63"/>
@@ -13776,7 +13887,7 @@
       </c>
       <c r="AJ64" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="AK64"/>
       <c r="AL64"/>
@@ -13986,7 +14097,7 @@
       </c>
       <c r="AJ65" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14096,7 +14207,7 @@
       </c>
       <c r="AJ66" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14195,8 +14306,8 @@
   </sheetPr>
   <dimension ref="A1:BU121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14328,48 +14439,48 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" s="48"/>
-      <c r="AL3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="38"/>
-      <c r="BT3" s="38"/>
-      <c r="BU3" s="38"/>
+      <c r="AI3" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" s="52"/>
+      <c r="AL3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="51"/>
     </row>
     <row r="4" spans="1:73" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -14410,44 +14521,44 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="48"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="52"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
     </row>
     <row r="5" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -14589,7 +14700,7 @@
         <v>22</v>
       </c>
       <c r="AI6" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" s="30" t="s">
         <v>84</v>
@@ -14697,7 +14808,7 @@
         <v>22</v>
       </c>
       <c r="BT6" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU6" s="30" t="s">
         <v>84</v>
@@ -14806,11 +14917,11 @@
       </c>
       <c r="AI7" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ7" s="24">
-        <f>AH7*AI7</f>
-        <v>22.682291666666671</v>
+        <f t="shared" ref="AJ7:AJ14" si="0">AH7*AI7</f>
+        <v>20.9375</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>23</v>
@@ -14914,11 +15025,11 @@
       </c>
       <c r="BT7" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="BU7" s="24">
         <f>BS7*BT7</f>
-        <v>211.26302083333331</v>
+        <v>195.01201923076923</v>
       </c>
     </row>
     <row r="8" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -15024,11 +15135,11 @@
       </c>
       <c r="AI8" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ8" s="24">
-        <f>AH8*AI8</f>
-        <v>75.911458333333329</v>
+        <f t="shared" si="0"/>
+        <v>70.072115384615387</v>
       </c>
       <c r="AL8" s="22"/>
       <c r="AM8" s="2" t="s">
@@ -15132,11 +15243,11 @@
       </c>
       <c r="BT8" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="BU8" s="24">
-        <f t="shared" ref="BU8:BU71" si="0">BS8*BT8</f>
-        <v>211.26302083333331</v>
+        <f t="shared" ref="BU8:BU71" si="1">BS8*BT8</f>
+        <v>195.01201923076923</v>
       </c>
     </row>
     <row r="9" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -15242,11 +15353,11 @@
       </c>
       <c r="AI9" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ9" s="24">
-        <f>AH9*AI9</f>
-        <v>43.229166666666664</v>
+        <f t="shared" si="0"/>
+        <v>39.903846153846153</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>27</v>
@@ -15350,11 +15461,11 @@
       </c>
       <c r="BT9" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
       <c r="BU9" s="24">
-        <f t="shared" si="0"/>
-        <v>2659.9114583333339</v>
+        <f t="shared" si="1"/>
+        <v>2455.3028846153852</v>
       </c>
     </row>
     <row r="10" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -15460,11 +15571,11 @@
       </c>
       <c r="AI10" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="AJ10" s="24">
-        <f>AH10*AI10</f>
-        <v>9.7916666666666661</v>
+        <f t="shared" si="0"/>
+        <v>9.0384615384615383</v>
       </c>
       <c r="AL10" s="22"/>
       <c r="AM10" s="2" t="s">
@@ -15568,11 +15679,11 @@
       </c>
       <c r="BT10" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
       <c r="BU10" s="24">
-        <f t="shared" si="0"/>
-        <v>2659.9114583333339</v>
+        <f t="shared" si="1"/>
+        <v>2455.3028846153852</v>
       </c>
     </row>
     <row r="11" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -15678,11 +15789,11 @@
       </c>
       <c r="AI11" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AJ11" s="24">
-        <f>AH11*AI11</f>
-        <v>39.583333333333336</v>
+        <f t="shared" si="0"/>
+        <v>36.538461538461533</v>
       </c>
       <c r="AL11" s="2" t="s">
         <v>28</v>
@@ -15786,11 +15897,11 @@
       </c>
       <c r="BT11" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU11" s="24">
-        <f t="shared" si="0"/>
-        <v>1237.7604166666667</v>
+        <f t="shared" si="1"/>
+        <v>1142.5480769230771</v>
       </c>
     </row>
     <row r="12" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -15896,11 +16007,11 @@
       </c>
       <c r="AI12" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ12" s="24">
-        <f>AH12*AI12</f>
-        <v>94.791666666666671</v>
+        <f t="shared" si="0"/>
+        <v>87.5</v>
       </c>
       <c r="AL12" s="22"/>
       <c r="AM12" s="2" t="s">
@@ -16004,11 +16115,11 @@
       </c>
       <c r="BT12" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU12" s="24">
-        <f t="shared" si="0"/>
-        <v>880.72916666666674</v>
+        <f t="shared" si="1"/>
+        <v>812.98076923076928</v>
       </c>
     </row>
     <row r="13" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -16114,11 +16225,11 @@
       </c>
       <c r="AI13" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ13" s="24">
-        <f>AH13*AI13</f>
-        <v>19.010416666666668</v>
+        <f t="shared" si="0"/>
+        <v>17.548076923076923</v>
       </c>
       <c r="AL13" s="22"/>
       <c r="AM13" s="2" t="s">
@@ -16222,11 +16333,11 @@
       </c>
       <c r="BT13" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU13" s="24">
-        <f t="shared" si="0"/>
-        <v>357.03125000000006</v>
+        <f t="shared" si="1"/>
+        <v>329.56730769230774</v>
       </c>
     </row>
     <row r="14" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -16332,11 +16443,11 @@
       </c>
       <c r="AI14" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ14" s="24">
-        <f>AH14*AI14</f>
-        <v>130.85937499999997</v>
+        <f t="shared" si="0"/>
+        <v>120.79326923076923</v>
       </c>
       <c r="AK14" s="24"/>
       <c r="AL14" s="2" t="s">
@@ -16441,11 +16552,11 @@
       </c>
       <c r="BT14" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU14" s="24">
-        <f t="shared" si="0"/>
-        <v>867.39583333333337</v>
+        <f t="shared" si="1"/>
+        <v>800.67307692307702</v>
       </c>
     </row>
     <row r="15" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -16484,9 +16595,9 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="46">
+      <c r="AJ15" s="45">
         <f>SUM(AJ7:AJ14)</f>
-        <v>435.859375</v>
+        <v>402.33173076923077</v>
       </c>
       <c r="AK15" s="24"/>
       <c r="AL15" s="22"/>
@@ -16591,11 +16702,11 @@
       </c>
       <c r="BT15" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU15" s="24">
-        <f t="shared" si="0"/>
-        <v>867.39583333333337</v>
+        <f t="shared" si="1"/>
+        <v>800.67307692307702</v>
       </c>
     </row>
     <row r="16" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -16701,11 +16812,11 @@
       </c>
       <c r="AI16" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ16" s="24">
         <f>AH16*AI16</f>
-        <v>641.38020833333337</v>
+        <v>592.04326923076928</v>
       </c>
       <c r="AL16" s="2" t="s">
         <v>31</v>
@@ -16809,11 +16920,11 @@
       </c>
       <c r="BT16" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU16" s="24">
-        <f t="shared" si="0"/>
-        <v>293.51562500000006</v>
+        <f t="shared" si="1"/>
+        <v>270.9375</v>
       </c>
     </row>
     <row r="17" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -16919,11 +17030,11 @@
       </c>
       <c r="AI17" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="AJ17" s="24">
         <f>AH17*AI17</f>
-        <v>536.625</v>
+        <v>495.34615384615381</v>
       </c>
       <c r="AK17" s="24"/>
       <c r="AL17" s="22"/>
@@ -17028,11 +17139,11 @@
       </c>
       <c r="BT17" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU17" s="24">
-        <f t="shared" si="0"/>
-        <v>186.19791666666669</v>
+        <f t="shared" si="1"/>
+        <v>171.875</v>
       </c>
     </row>
     <row r="18" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -17071,9 +17182,9 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="24"/>
-      <c r="AJ18" s="46">
+      <c r="AJ18" s="45">
         <f>SUM(AJ16:AJ17)</f>
-        <v>1178.0052083333335</v>
+        <v>1087.3894230769231</v>
       </c>
       <c r="AK18" s="24"/>
       <c r="AL18" s="22"/>
@@ -17178,11 +17289,11 @@
       </c>
       <c r="BT18" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU18" s="24">
-        <f t="shared" si="0"/>
-        <v>84.635416666666686</v>
+        <f t="shared" si="1"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="19" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -17288,11 +17399,11 @@
       </c>
       <c r="AI19" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ19" s="24">
         <f>AH19*AI19</f>
-        <v>5.729166666666667</v>
+        <v>5.2884615384615392</v>
       </c>
       <c r="AL19" s="22"/>
       <c r="AM19" s="2" t="s">
@@ -17396,11 +17507,11 @@
       </c>
       <c r="BT19" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU19" s="24">
-        <f t="shared" si="0"/>
-        <v>22.682291666666671</v>
+        <f t="shared" si="1"/>
+        <v>20.9375</v>
       </c>
     </row>
     <row r="20" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -17506,11 +17617,11 @@
       </c>
       <c r="AI20" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ20" s="24">
         <f>AH20*AI20</f>
-        <v>1106.25</v>
+        <v>1021.1538461538462</v>
       </c>
       <c r="AL20" s="2" t="s">
         <v>34</v>
@@ -17614,11 +17725,11 @@
       </c>
       <c r="BT20" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU20" s="24">
-        <f t="shared" si="0"/>
-        <v>1376.1458333333333</v>
+        <f t="shared" si="1"/>
+        <v>1270.2884615384617</v>
       </c>
     </row>
     <row r="21" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -17724,11 +17835,11 @@
       </c>
       <c r="AI21" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ21" s="24">
         <f>AH21*AI21</f>
-        <v>372.5</v>
+        <v>343.84615384615387</v>
       </c>
       <c r="AK21" s="24"/>
       <c r="AL21" s="22"/>
@@ -17833,11 +17944,11 @@
       </c>
       <c r="BT21" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU21" s="24">
-        <f t="shared" si="0"/>
-        <v>641.38020833333337</v>
+        <f t="shared" si="1"/>
+        <v>592.04326923076928</v>
       </c>
     </row>
     <row r="22" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -17876,9 +17987,9 @@
       <c r="AG22" s="15"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="24"/>
-      <c r="AJ22" s="46">
+      <c r="AJ22" s="45">
         <f>SUM(AJ19:AJ21)</f>
-        <v>1484.4791666666667</v>
+        <v>1370.2884615384614</v>
       </c>
       <c r="AK22" s="24"/>
       <c r="AL22" s="22"/>
@@ -17983,11 +18094,11 @@
       </c>
       <c r="BT22" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU22" s="24">
-        <f t="shared" si="0"/>
-        <v>562.31770833333326</v>
+        <f t="shared" si="1"/>
+        <v>519.0625</v>
       </c>
     </row>
     <row r="23" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -18093,11 +18204,11 @@
       </c>
       <c r="AI23" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="AJ23" s="24">
         <f>AH23*AI23</f>
-        <v>32.8125</v>
+        <v>30.28846153846154</v>
       </c>
       <c r="AL23" s="22"/>
       <c r="AM23" s="2" t="s">
@@ -18201,11 +18312,11 @@
       </c>
       <c r="BT23" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU23" s="24">
-        <f t="shared" si="0"/>
-        <v>75.911458333333329</v>
+        <f t="shared" si="1"/>
+        <v>70.072115384615387</v>
       </c>
     </row>
     <row r="24" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -18311,11 +18422,11 @@
       </c>
       <c r="AI24" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ24" s="24">
         <f>AH24*AI24</f>
-        <v>53.828125000000007</v>
+        <v>49.6875</v>
       </c>
       <c r="AK24" s="24"/>
       <c r="AL24" s="22"/>
@@ -18420,11 +18531,11 @@
       </c>
       <c r="BT24" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU24" s="24">
-        <f t="shared" si="0"/>
-        <v>74.192708333333329</v>
+        <f t="shared" si="1"/>
+        <v>68.48557692307692</v>
       </c>
     </row>
     <row r="25" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -18463,9 +18574,9 @@
       <c r="AG25" s="15"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="24"/>
-      <c r="AJ25" s="46">
+      <c r="AJ25" s="45">
         <f>SUM(AJ23:AJ24)</f>
-        <v>86.640625</v>
+        <v>79.975961538461547</v>
       </c>
       <c r="AK25" s="24"/>
       <c r="AL25" s="22"/>
@@ -18570,11 +18681,11 @@
       </c>
       <c r="BT25" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="BU25" s="24">
-        <f t="shared" si="0"/>
-        <v>22.34375</v>
+        <f t="shared" si="1"/>
+        <v>20.625</v>
       </c>
     </row>
     <row r="26" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -18680,11 +18791,11 @@
       </c>
       <c r="AI26" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ26" s="24">
         <f>AH26*AI26</f>
-        <v>818.5</v>
+        <v>755.53846153846155</v>
       </c>
       <c r="AL26" s="2" t="s">
         <v>36</v>
@@ -18788,11 +18899,11 @@
       </c>
       <c r="BT26" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU26" s="24">
-        <f t="shared" si="0"/>
-        <v>171.68749999999997</v>
+        <f t="shared" si="1"/>
+        <v>158.48076923076923</v>
       </c>
     </row>
     <row r="27" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -18898,11 +19009,11 @@
       </c>
       <c r="AI27" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ27" s="24">
         <f>AH27*AI27</f>
-        <v>30.989583333333332</v>
+        <v>28.60576923076923</v>
       </c>
       <c r="AK27" s="24"/>
       <c r="AL27" s="22"/>
@@ -19007,11 +19118,11 @@
       </c>
       <c r="BT27" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU27" s="24">
-        <f t="shared" si="0"/>
-        <v>171.68749999999997</v>
+        <f t="shared" si="1"/>
+        <v>158.48076923076923</v>
       </c>
     </row>
     <row r="28" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -19050,9 +19161,9 @@
       <c r="AG28" s="15"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="24"/>
-      <c r="AJ28" s="46">
+      <c r="AJ28" s="45">
         <f>SUM(AJ26:AJ27)</f>
-        <v>849.48958333333337</v>
+        <v>784.14423076923083</v>
       </c>
       <c r="AK28" s="24"/>
       <c r="AL28" s="2" t="s">
@@ -19157,11 +19268,11 @@
       </c>
       <c r="BT28" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU28" s="24">
-        <f t="shared" si="0"/>
-        <v>554.94791666666663</v>
+        <f t="shared" si="1"/>
+        <v>512.25961538461536</v>
       </c>
     </row>
     <row r="29" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -19267,11 +19378,11 @@
       </c>
       <c r="AI29" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ29" s="24">
-        <f>AH29*AI29</f>
-        <v>84.635416666666686</v>
+        <f t="shared" ref="AJ29:AJ35" si="2">AH29*AI29</f>
+        <v>78.125</v>
       </c>
       <c r="AL29" s="22"/>
       <c r="AM29" s="2" t="s">
@@ -19375,11 +19486,11 @@
       </c>
       <c r="BT29" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU29" s="24">
-        <f t="shared" si="0"/>
-        <v>440.36458333333337</v>
+        <f t="shared" si="1"/>
+        <v>406.49038461538464</v>
       </c>
     </row>
     <row r="30" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -19485,11 +19596,11 @@
       </c>
       <c r="AI30" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ30" s="24">
-        <f>AH30*AI30</f>
-        <v>22.34375</v>
+        <f t="shared" si="2"/>
+        <v>20.625</v>
       </c>
       <c r="AL30" s="22"/>
       <c r="AM30" s="2" t="s">
@@ -19593,11 +19704,11 @@
       </c>
       <c r="BT30" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU30" s="24">
-        <f t="shared" si="0"/>
-        <v>47.916666666666671</v>
+        <f t="shared" si="1"/>
+        <v>44.230769230769234</v>
       </c>
     </row>
     <row r="31" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -19703,11 +19814,11 @@
       </c>
       <c r="AI31" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ31" s="24">
-        <f>AH31*AI31</f>
-        <v>440.36458333333337</v>
+        <f t="shared" si="2"/>
+        <v>406.49038461538464</v>
       </c>
       <c r="AL31" s="22"/>
       <c r="AM31" s="2" t="s">
@@ -19811,11 +19922,11 @@
       </c>
       <c r="BT31" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU31" s="24">
-        <f t="shared" si="0"/>
-        <v>43.229166666666664</v>
+        <f t="shared" si="1"/>
+        <v>39.903846153846153</v>
       </c>
     </row>
     <row r="32" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -19921,11 +20032,11 @@
       </c>
       <c r="AI32" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AJ32" s="24">
-        <f>AH32*AI32</f>
-        <v>38.333333333333343</v>
+        <f t="shared" si="2"/>
+        <v>35.384615384615387</v>
       </c>
       <c r="AL32" s="22"/>
       <c r="AM32" s="2" t="s">
@@ -20029,11 +20140,11 @@
       </c>
       <c r="BT32" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU32" s="24">
-        <f t="shared" si="0"/>
-        <v>17.447916666666668</v>
+        <f t="shared" si="1"/>
+        <v>16.105769230769234</v>
       </c>
     </row>
     <row r="33" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -20139,11 +20250,11 @@
       </c>
       <c r="AI33" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="AJ33" s="24">
-        <f>AH33*AI33</f>
-        <v>22.239583333333329</v>
+        <f t="shared" si="2"/>
+        <v>20.528846153846153</v>
       </c>
       <c r="AL33" s="22"/>
       <c r="AM33" s="2" t="s">
@@ -20247,11 +20358,11 @@
       </c>
       <c r="BT33" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU33" s="24">
-        <f t="shared" si="0"/>
-        <v>5.729166666666667</v>
+        <f t="shared" si="1"/>
+        <v>5.2884615384615392</v>
       </c>
     </row>
     <row r="34" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -20357,11 +20468,11 @@
       </c>
       <c r="AI34" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ34" s="24">
-        <f>AH34*AI34</f>
-        <v>18.145833333333332</v>
+        <f t="shared" si="2"/>
+        <v>16.75</v>
       </c>
       <c r="AL34" s="2" t="s">
         <v>40</v>
@@ -20465,11 +20576,11 @@
       </c>
       <c r="BT34" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU34" s="24">
-        <f t="shared" si="0"/>
-        <v>818.5</v>
+        <f t="shared" si="1"/>
+        <v>755.53846153846155</v>
       </c>
     </row>
     <row r="35" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -20575,11 +20686,11 @@
       </c>
       <c r="AI35" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ35" s="24">
-        <f>AH35*AI35</f>
-        <v>121.24999999999999</v>
+        <f t="shared" si="2"/>
+        <v>111.92307692307692</v>
       </c>
       <c r="AK35" s="24"/>
       <c r="AL35" s="22"/>
@@ -20684,11 +20795,11 @@
       </c>
       <c r="BT35" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU35" s="24">
-        <f t="shared" si="0"/>
-        <v>818.5</v>
+        <f t="shared" si="1"/>
+        <v>755.53846153846155</v>
       </c>
     </row>
     <row r="36" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -20727,9 +20838,9 @@
       <c r="AG36" s="15"/>
       <c r="AH36" s="16"/>
       <c r="AI36" s="24"/>
-      <c r="AJ36" s="46">
+      <c r="AJ36" s="45">
         <f>SUM(AJ29:AJ35)</f>
-        <v>747.31250000000011</v>
+        <v>689.82692307692309</v>
       </c>
       <c r="AK36" s="24"/>
       <c r="AL36" s="2" t="s">
@@ -20834,11 +20945,11 @@
       </c>
       <c r="BT36" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="BU36" s="24">
-        <f t="shared" si="0"/>
-        <v>252.86979166666666</v>
+        <f t="shared" si="1"/>
+        <v>233.41826923076923</v>
       </c>
     </row>
     <row r="37" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -20944,11 +21055,11 @@
       </c>
       <c r="AI37" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ37" s="24">
         <f>AH37*AI37</f>
-        <v>171.68749999999997</v>
+        <v>158.48076923076923</v>
       </c>
       <c r="AL37" s="22"/>
       <c r="AM37" s="2" t="s">
@@ -21052,11 +21163,11 @@
       </c>
       <c r="BT37" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="BU37" s="24">
-        <f t="shared" si="0"/>
-        <v>243.07812499999997</v>
+        <f t="shared" si="1"/>
+        <v>224.37980769230768</v>
       </c>
     </row>
     <row r="38" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -21162,11 +21273,11 @@
       </c>
       <c r="AI38" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ38" s="24">
         <f>AH38*AI38</f>
-        <v>520.64583333333326</v>
+        <v>480.59615384615381</v>
       </c>
       <c r="AK38" s="24"/>
       <c r="AL38" s="22"/>
@@ -21271,11 +21382,11 @@
       </c>
       <c r="BT38" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="BU38" s="24">
-        <f t="shared" si="0"/>
-        <v>9.7916666666666661</v>
+        <f t="shared" si="1"/>
+        <v>9.0384615384615383</v>
       </c>
     </row>
     <row r="39" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -21314,9 +21425,9 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="16"/>
       <c r="AI39" s="24"/>
-      <c r="AJ39" s="46">
+      <c r="AJ39" s="45">
         <f>SUM(AJ37:AJ38)</f>
-        <v>692.33333333333326</v>
+        <v>639.07692307692309</v>
       </c>
       <c r="AK39" s="24"/>
       <c r="AL39" s="2" t="s">
@@ -21421,11 +21532,11 @@
       </c>
       <c r="BT39" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU39" s="24">
-        <f t="shared" si="0"/>
-        <v>861.19791666666674</v>
+        <f t="shared" si="1"/>
+        <v>794.95192307692309</v>
       </c>
     </row>
     <row r="40" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -21531,11 +21642,11 @@
       </c>
       <c r="AI40" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="AJ40" s="24">
-        <f>AH40*AI40</f>
-        <v>211.26302083333331</v>
+        <f t="shared" ref="AJ40:AJ57" si="3">AH40*AI40</f>
+        <v>195.01201923076923</v>
       </c>
       <c r="AL40" s="22"/>
       <c r="AM40" s="2" t="s">
@@ -21639,11 +21750,11 @@
       </c>
       <c r="BT40" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU40" s="24">
-        <f t="shared" si="0"/>
-        <v>861.19791666666674</v>
+        <f t="shared" si="1"/>
+        <v>794.95192307692309</v>
       </c>
     </row>
     <row r="41" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -21749,11 +21860,11 @@
       </c>
       <c r="AI41" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ41" s="24">
-        <f>AH41*AI41</f>
-        <v>880.72916666666674</v>
+        <f t="shared" si="3"/>
+        <v>812.98076923076928</v>
       </c>
       <c r="AL41" s="2" t="s">
         <v>48</v>
@@ -21857,11 +21968,11 @@
       </c>
       <c r="BT41" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="BU41" s="24">
-        <f t="shared" si="0"/>
-        <v>497.61458333333337</v>
+        <f t="shared" si="1"/>
+        <v>459.33653846153845</v>
       </c>
     </row>
     <row r="42" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -21967,11 +22078,11 @@
       </c>
       <c r="AI42" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ42" s="24">
-        <f>AH42*AI42</f>
-        <v>867.39583333333337</v>
+        <f t="shared" si="3"/>
+        <v>800.67307692307702</v>
       </c>
       <c r="AL42" s="22"/>
       <c r="AM42" s="2" t="s">
@@ -22075,11 +22186,11 @@
       </c>
       <c r="BT42" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="BU42" s="24">
-        <f t="shared" si="0"/>
-        <v>449.21875000000006</v>
+        <f t="shared" si="1"/>
+        <v>414.66346153846155</v>
       </c>
     </row>
     <row r="43" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -22185,11 +22296,11 @@
       </c>
       <c r="AI43" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ43" s="24">
-        <f>AH43*AI43</f>
-        <v>186.19791666666669</v>
+        <f t="shared" si="3"/>
+        <v>171.875</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="2" t="s">
@@ -22293,11 +22404,11 @@
       </c>
       <c r="BT43" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="BU43" s="24">
-        <f t="shared" si="0"/>
-        <v>48.395833333333336</v>
+        <f t="shared" si="1"/>
+        <v>44.673076923076927</v>
       </c>
     </row>
     <row r="44" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -22403,11 +22514,11 @@
       </c>
       <c r="AI44" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ44" s="24">
-        <f>AH44*AI44</f>
-        <v>562.31770833333326</v>
+        <f t="shared" si="3"/>
+        <v>519.0625</v>
       </c>
       <c r="AL44" s="2" t="s">
         <v>49</v>
@@ -22511,11 +22622,11 @@
       </c>
       <c r="BT44" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="BU44" s="24">
-        <f t="shared" si="0"/>
-        <v>529.390625</v>
+        <f t="shared" si="1"/>
+        <v>488.66826923076923</v>
       </c>
     </row>
     <row r="45" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -22621,11 +22732,11 @@
       </c>
       <c r="AI45" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ45" s="24">
-        <f>AH45*AI45</f>
-        <v>17.447916666666668</v>
+        <f t="shared" si="3"/>
+        <v>16.105769230769234</v>
       </c>
       <c r="AL45" s="22"/>
       <c r="AM45" s="2" t="s">
@@ -22729,11 +22840,11 @@
       </c>
       <c r="BT45" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="BU45" s="24">
-        <f t="shared" si="0"/>
-        <v>392.59375</v>
+        <f t="shared" si="1"/>
+        <v>362.39423076923077</v>
       </c>
     </row>
     <row r="46" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -22839,11 +22950,11 @@
       </c>
       <c r="AI46" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ46" s="24">
-        <f>AH46*AI46</f>
-        <v>861.19791666666674</v>
+        <f t="shared" si="3"/>
+        <v>794.95192307692309</v>
       </c>
       <c r="AL46" s="22"/>
       <c r="AM46" s="2" t="s">
@@ -22947,11 +23058,11 @@
       </c>
       <c r="BT46" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="BU46" s="24">
-        <f t="shared" si="0"/>
-        <v>136.53125</v>
+        <f t="shared" si="1"/>
+        <v>126.02884615384615</v>
       </c>
     </row>
     <row r="47" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -23057,11 +23168,11 @@
       </c>
       <c r="AI47" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="AJ47" s="24">
-        <f>AH47*AI47</f>
-        <v>449.21875000000006</v>
+        <f t="shared" si="3"/>
+        <v>414.66346153846155</v>
       </c>
       <c r="AL47" s="2" t="s">
         <v>51</v>
@@ -23165,11 +23276,11 @@
       </c>
       <c r="BT47" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="BU47" s="24">
-        <f t="shared" si="0"/>
-        <v>160.83333333333334</v>
+        <f t="shared" si="1"/>
+        <v>148.46153846153845</v>
       </c>
     </row>
     <row r="48" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -23275,11 +23386,11 @@
       </c>
       <c r="AI48" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="AJ48" s="24">
-        <f>AH48*AI48</f>
-        <v>392.59375</v>
+        <f t="shared" si="3"/>
+        <v>362.39423076923077</v>
       </c>
       <c r="AL48" s="22"/>
       <c r="AM48" s="2" t="s">
@@ -23383,11 +23494,11 @@
       </c>
       <c r="BT48" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="BU48" s="24">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <f t="shared" si="1"/>
+        <v>76.92307692307692</v>
       </c>
     </row>
     <row r="49" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -23493,11 +23604,11 @@
       </c>
       <c r="AI49" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AJ49" s="24">
-        <f>AH49*AI49</f>
-        <v>83.333333333333343</v>
+        <f t="shared" si="3"/>
+        <v>76.92307692307692</v>
       </c>
       <c r="AL49" s="22"/>
       <c r="AM49" s="2" t="s">
@@ -23601,11 +23712,11 @@
       </c>
       <c r="BT49" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="BU49" s="24">
-        <f t="shared" si="0"/>
-        <v>39.583333333333336</v>
+        <f t="shared" si="1"/>
+        <v>36.538461538461533</v>
       </c>
     </row>
     <row r="50" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -23711,11 +23822,11 @@
       </c>
       <c r="AI50" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ50" s="24">
-        <f>AH50*AI50</f>
-        <v>16.927083333333336</v>
+        <f t="shared" si="3"/>
+        <v>15.625000000000002</v>
       </c>
       <c r="AL50" s="22"/>
       <c r="AM50" s="2" t="s">
@@ -23819,11 +23930,11 @@
       </c>
       <c r="BT50" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="BU50" s="24">
-        <f t="shared" si="0"/>
-        <v>38.333333333333343</v>
+        <f t="shared" si="1"/>
+        <v>35.384615384615387</v>
       </c>
     </row>
     <row r="51" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -23929,11 +24040,11 @@
       </c>
       <c r="AI51" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
       <c r="AJ51" s="24">
-        <f>AH51*AI51</f>
-        <v>91.109375</v>
+        <f t="shared" si="3"/>
+        <v>84.100961538461533</v>
       </c>
       <c r="AL51" s="2" t="s">
         <v>55</v>
@@ -24037,11 +24148,11 @@
       </c>
       <c r="BT51" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="BU51" s="24">
-        <f t="shared" si="0"/>
-        <v>55.052083333333329</v>
+        <f t="shared" si="1"/>
+        <v>50.817307692307693</v>
       </c>
     </row>
     <row r="52" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -24147,11 +24258,11 @@
       </c>
       <c r="AI52" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ52" s="24">
-        <f>AH52*AI52</f>
-        <v>28.125000000000004</v>
+        <f t="shared" si="3"/>
+        <v>25.961538461538463</v>
       </c>
       <c r="AL52" s="22"/>
       <c r="AM52" s="2" t="s">
@@ -24255,11 +24366,11 @@
       </c>
       <c r="BT52" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="BU52" s="24">
-        <f t="shared" si="0"/>
-        <v>32.8125</v>
+        <f t="shared" si="1"/>
+        <v>30.28846153846154</v>
       </c>
     </row>
     <row r="53" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -24365,11 +24476,11 @@
       </c>
       <c r="AI53" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ53" s="24">
-        <f>AH53*AI53</f>
-        <v>450.85416666666663</v>
+        <f t="shared" si="3"/>
+        <v>416.17307692307691</v>
       </c>
       <c r="AL53" s="22"/>
       <c r="AM53" s="2" t="s">
@@ -24473,11 +24584,11 @@
       </c>
       <c r="BT53" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="BU53" s="24">
-        <f t="shared" si="0"/>
-        <v>22.239583333333329</v>
+        <f t="shared" si="1"/>
+        <v>20.528846153846153</v>
       </c>
     </row>
     <row r="54" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -24583,11 +24694,11 @@
       </c>
       <c r="AI54" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="AJ54" s="24">
-        <f>AH54*AI54</f>
-        <v>111.33333333333331</v>
+        <f t="shared" si="3"/>
+        <v>102.76923076923077</v>
       </c>
       <c r="AL54" s="2" t="s">
         <v>58</v>
@@ -24691,11 +24802,11 @@
       </c>
       <c r="BT54" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU54" s="24">
-        <f t="shared" si="0"/>
-        <v>47.916666666666671</v>
+        <f t="shared" si="1"/>
+        <v>44.230769230769234</v>
       </c>
     </row>
     <row r="55" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -24801,11 +24912,11 @@
       </c>
       <c r="AI55" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="AJ55" s="24">
-        <f>AH55*AI55</f>
-        <v>28.125</v>
+        <f t="shared" si="3"/>
+        <v>25.96153846153846</v>
       </c>
       <c r="AL55" s="22"/>
       <c r="AM55" s="2" t="s">
@@ -24909,11 +25020,11 @@
       </c>
       <c r="BT55" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU55" s="24">
-        <f t="shared" si="0"/>
-        <v>30.989583333333332</v>
+        <f t="shared" si="1"/>
+        <v>28.60576923076923</v>
       </c>
     </row>
     <row r="56" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -25019,11 +25130,11 @@
       </c>
       <c r="AI56" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AJ56" s="24">
-        <f>AH56*AI56</f>
-        <v>207.1875</v>
+        <f t="shared" si="3"/>
+        <v>191.25</v>
       </c>
       <c r="AL56" s="22"/>
       <c r="AM56" s="2" t="s">
@@ -25127,11 +25238,11 @@
       </c>
       <c r="BT56" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU56" s="24">
-        <f t="shared" si="0"/>
-        <v>16.927083333333336</v>
+        <f t="shared" si="1"/>
+        <v>15.625000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -25237,11 +25348,11 @@
       </c>
       <c r="AI57" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ57" s="24">
-        <f>AH57*AI57</f>
-        <v>110.75</v>
+        <f t="shared" si="3"/>
+        <v>102.23076923076923</v>
       </c>
       <c r="AK57" s="24"/>
       <c r="AL57" s="2" t="s">
@@ -25346,11 +25457,11 @@
       </c>
       <c r="BT57" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
       <c r="BU57" s="24">
-        <f t="shared" si="0"/>
-        <v>91.109375</v>
+        <f t="shared" si="1"/>
+        <v>84.100961538461533</v>
       </c>
     </row>
     <row r="58" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -25389,9 +25500,9 @@
       <c r="AG58" s="15"/>
       <c r="AH58" s="16"/>
       <c r="AI58" s="24"/>
-      <c r="AJ58" s="46">
+      <c r="AJ58" s="45">
         <f>SUM(AJ40:AJ57)</f>
-        <v>5556.1067708333321</v>
+        <v>5128.7139423076924</v>
       </c>
       <c r="AK58" s="24"/>
       <c r="AL58" s="22"/>
@@ -25496,11 +25607,11 @@
       </c>
       <c r="BT58" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
       <c r="BU58" s="24">
-        <f t="shared" si="0"/>
-        <v>91.109375</v>
+        <f t="shared" si="1"/>
+        <v>84.100961538461533</v>
       </c>
     </row>
     <row r="59" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -25606,11 +25717,11 @@
       </c>
       <c r="AI59" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ59" s="24">
         <f>AH59*AI59</f>
-        <v>357.03125000000006</v>
+        <v>329.56730769230774</v>
       </c>
       <c r="AL59" s="2" t="s">
         <v>62</v>
@@ -25714,11 +25825,11 @@
       </c>
       <c r="BT59" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU59" s="24">
-        <f t="shared" si="0"/>
-        <v>459.40104166666674</v>
+        <f t="shared" si="1"/>
+        <v>424.0625</v>
       </c>
     </row>
     <row r="60" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -25824,11 +25935,11 @@
       </c>
       <c r="AI60" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="AJ60" s="24">
         <f>AH60*AI60</f>
-        <v>48.395833333333336</v>
+        <v>44.673076923076927</v>
       </c>
       <c r="AL60" s="22"/>
       <c r="AM60" s="2" t="s">
@@ -25932,11 +26043,11 @@
       </c>
       <c r="BT60" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU60" s="24">
-        <f t="shared" si="0"/>
-        <v>310.78125000000006</v>
+        <f t="shared" si="1"/>
+        <v>286.875</v>
       </c>
     </row>
     <row r="61" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -26042,11 +26153,11 @@
       </c>
       <c r="AI61" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="AJ61" s="24">
         <f>AH61*AI61</f>
-        <v>136.53125</v>
+        <v>126.02884615384615</v>
       </c>
       <c r="AL61" s="22"/>
       <c r="AM61" s="2" t="s">
@@ -26150,11 +26261,11 @@
       </c>
       <c r="BT61" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU61" s="24">
-        <f t="shared" si="0"/>
-        <v>94.791666666666671</v>
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
     </row>
     <row r="62" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -26260,11 +26371,11 @@
       </c>
       <c r="AI62" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ62" s="24">
         <f>AH62*AI62</f>
-        <v>314.32291666666669</v>
+        <v>290.14423076923077</v>
       </c>
       <c r="AL62" s="22"/>
       <c r="AM62" s="2" t="s">
@@ -26368,11 +26479,11 @@
       </c>
       <c r="BT62" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="BU62" s="24">
-        <f t="shared" si="0"/>
-        <v>53.828125000000007</v>
+        <f t="shared" si="1"/>
+        <v>49.6875</v>
       </c>
     </row>
     <row r="63" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -26478,11 +26589,11 @@
       </c>
       <c r="AI63" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ63" s="24">
         <f>AH63*AI63</f>
-        <v>57.25</v>
+        <v>52.846153846153847</v>
       </c>
       <c r="AK63" s="24"/>
       <c r="AL63" s="2" t="s">
@@ -26587,11 +26698,11 @@
       </c>
       <c r="BT63" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU63" s="24">
-        <f t="shared" si="0"/>
-        <v>1618.4895833333333</v>
+        <f t="shared" si="1"/>
+        <v>1493.9903846153848</v>
       </c>
     </row>
     <row r="64" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -26630,9 +26741,9 @@
       <c r="AG64" s="15"/>
       <c r="AH64" s="16"/>
       <c r="AI64" s="24"/>
-      <c r="AJ64" s="46">
+      <c r="AJ64" s="45">
         <f>SUM(AJ59:AJ63)</f>
-        <v>913.53125</v>
+        <v>843.25961538461536</v>
       </c>
       <c r="AK64" s="24"/>
       <c r="AL64" s="22"/>
@@ -26737,11 +26848,11 @@
       </c>
       <c r="BT64" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU64" s="24">
-        <f t="shared" si="0"/>
-        <v>1106.25</v>
+        <f t="shared" si="1"/>
+        <v>1021.1538461538462</v>
       </c>
     </row>
     <row r="65" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -26847,11 +26958,11 @@
       </c>
       <c r="AI65" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ65" s="24">
-        <f>AH65*AI65</f>
-        <v>74.192708333333329</v>
+        <f t="shared" ref="AJ65:AJ70" si="4">AH65*AI65</f>
+        <v>68.48557692307692</v>
       </c>
       <c r="AL65" s="22"/>
       <c r="AM65" s="2" t="s">
@@ -26955,11 +27066,11 @@
       </c>
       <c r="BT65" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU65" s="24">
-        <f t="shared" si="0"/>
-        <v>314.32291666666669</v>
+        <f t="shared" si="1"/>
+        <v>290.14423076923077</v>
       </c>
     </row>
     <row r="66" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -27065,11 +27176,11 @@
       </c>
       <c r="AI66" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ66" s="24">
-        <f>AH66*AI66</f>
-        <v>47.916666666666671</v>
+        <f t="shared" si="4"/>
+        <v>44.230769230769234</v>
       </c>
       <c r="AL66" s="22"/>
       <c r="AM66" s="2" t="s">
@@ -27173,11 +27284,11 @@
       </c>
       <c r="BT66" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU66" s="24">
-        <f t="shared" si="0"/>
-        <v>135.41666666666669</v>
+        <f t="shared" si="1"/>
+        <v>125.00000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -27283,11 +27394,11 @@
       </c>
       <c r="AI67" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="AJ67" s="24">
-        <f>AH67*AI67</f>
-        <v>243.07812499999997</v>
+        <f t="shared" si="4"/>
+        <v>224.37980769230768</v>
       </c>
       <c r="AL67" s="22"/>
       <c r="AM67" s="2" t="s">
@@ -27391,11 +27502,11 @@
       </c>
       <c r="BT67" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU67" s="24">
-        <f t="shared" si="0"/>
-        <v>28.125000000000004</v>
+        <f t="shared" si="1"/>
+        <v>25.961538461538463</v>
       </c>
     </row>
     <row r="68" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -27501,11 +27612,11 @@
       </c>
       <c r="AI68" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ68" s="24">
-        <f>AH68*AI68</f>
-        <v>50.598958333333321</v>
+        <f t="shared" si="4"/>
+        <v>46.706730769230766</v>
       </c>
       <c r="AL68" s="22"/>
       <c r="AM68" s="2" t="s">
@@ -27609,11 +27720,11 @@
       </c>
       <c r="BT68" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU68" s="24">
-        <f t="shared" si="0"/>
-        <v>19.010416666666668</v>
+        <f t="shared" si="1"/>
+        <v>17.548076923076923</v>
       </c>
     </row>
     <row r="69" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -27719,11 +27830,11 @@
       </c>
       <c r="AI69" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="AJ69" s="24">
-        <f>AH69*AI69</f>
-        <v>789</v>
+        <f t="shared" si="4"/>
+        <v>728.30769230769238</v>
       </c>
       <c r="AL69" s="22"/>
       <c r="AM69" s="2" t="s">
@@ -27827,11 +27938,11 @@
       </c>
       <c r="BT69" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="BU69" s="24">
-        <f t="shared" si="0"/>
-        <v>15.364583333333334</v>
+        <f t="shared" si="1"/>
+        <v>14.182692307692308</v>
       </c>
     </row>
     <row r="70" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -27937,11 +28048,11 @@
       </c>
       <c r="AI70" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="AJ70" s="24">
-        <f>AH70*AI70</f>
-        <v>13.875</v>
+        <f t="shared" si="4"/>
+        <v>12.807692307692307</v>
       </c>
       <c r="AK70" s="24"/>
       <c r="AL70" s="2" t="s">
@@ -28046,11 +28157,11 @@
       </c>
       <c r="BT70" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU70" s="24">
-        <f t="shared" si="0"/>
-        <v>1170.755208333333</v>
+        <f t="shared" si="1"/>
+        <v>1080.6971153846152</v>
       </c>
     </row>
     <row r="71" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -28089,9 +28200,9 @@
       <c r="AG71" s="15"/>
       <c r="AH71" s="16"/>
       <c r="AI71" s="24"/>
-      <c r="AJ71" s="46">
+      <c r="AJ71" s="45">
         <f>SUM(AJ65:AJ70)</f>
-        <v>1218.6614583333333</v>
+        <v>1124.9182692307693</v>
       </c>
       <c r="AK71" s="24"/>
       <c r="AL71" s="22"/>
@@ -28196,11 +28307,11 @@
       </c>
       <c r="BT71" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU71" s="24">
-        <f t="shared" si="0"/>
-        <v>520.64583333333326</v>
+        <f t="shared" si="1"/>
+        <v>480.59615384615381</v>
       </c>
     </row>
     <row r="72" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -28306,11 +28417,11 @@
       </c>
       <c r="AI72" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
       <c r="AJ72" s="24">
         <f>AH72*AI72</f>
-        <v>2659.9114583333339</v>
+        <v>2455.3028846153852</v>
       </c>
       <c r="AL72" s="22"/>
       <c r="AM72" s="2" t="s">
@@ -28414,11 +28525,11 @@
       </c>
       <c r="BT72" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU72" s="24">
-        <f t="shared" ref="BU72:BU93" si="1">BS72*BT72</f>
-        <v>450.85416666666663</v>
+        <f t="shared" ref="BU72:BU93" si="5">BS72*BT72</f>
+        <v>416.17307692307691</v>
       </c>
     </row>
     <row r="73" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -28524,11 +28635,11 @@
       </c>
       <c r="AI73" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ73" s="24">
         <f>AH73*AI73</f>
-        <v>310.78125000000006</v>
+        <v>286.875</v>
       </c>
       <c r="AL73" s="22"/>
       <c r="AM73" s="2" t="s">
@@ -28632,11 +28743,11 @@
       </c>
       <c r="BT73" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU73" s="24">
-        <f t="shared" si="1"/>
-        <v>130.85937499999997</v>
+        <f t="shared" si="5"/>
+        <v>120.79326923076923</v>
       </c>
     </row>
     <row r="74" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -28742,11 +28853,11 @@
       </c>
       <c r="AI74" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ74" s="24">
         <f>AH74*AI74</f>
-        <v>135.41666666666669</v>
+        <v>125.00000000000001</v>
       </c>
       <c r="AL74" s="22"/>
       <c r="AM74" s="2" t="s">
@@ -28850,11 +28961,11 @@
       </c>
       <c r="BT74" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU74" s="24">
-        <f t="shared" si="1"/>
-        <v>50.598958333333321</v>
+        <f t="shared" si="5"/>
+        <v>46.706730769230766</v>
       </c>
     </row>
     <row r="75" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -28960,11 +29071,11 @@
       </c>
       <c r="AI75" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="AJ75" s="24">
         <f>AH75*AI75</f>
-        <v>2084</v>
+        <v>1923.6923076923078</v>
       </c>
       <c r="AK75" s="24"/>
       <c r="AL75" s="22"/>
@@ -29069,11 +29180,11 @@
       </c>
       <c r="BT75" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="BU75" s="24">
-        <f t="shared" si="1"/>
-        <v>18.145833333333332</v>
+        <f t="shared" si="5"/>
+        <v>16.75</v>
       </c>
     </row>
     <row r="76" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -29112,9 +29223,9 @@
       <c r="AG76" s="15"/>
       <c r="AH76" s="16"/>
       <c r="AI76" s="24"/>
-      <c r="AJ76" s="46">
+      <c r="AJ76" s="45">
         <f>SUM(AJ72:AJ75)</f>
-        <v>5190.109375</v>
+        <v>4790.8701923076933</v>
       </c>
       <c r="AK76" s="24"/>
       <c r="AL76" s="2" t="s">
@@ -29219,11 +29330,11 @@
       </c>
       <c r="BT76" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="BU76" s="24">
-        <f t="shared" si="1"/>
-        <v>2984.333333333333</v>
+        <f t="shared" si="5"/>
+        <v>2754.7692307692309</v>
       </c>
     </row>
     <row r="77" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -29329,11 +29440,11 @@
       </c>
       <c r="AI77" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ77" s="24">
         <f>AH77*AI77</f>
-        <v>912.75</v>
+        <v>842.53846153846143</v>
       </c>
       <c r="AK77" s="24"/>
       <c r="AL77" s="22"/>
@@ -29438,11 +29549,11 @@
       </c>
       <c r="BT77" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="BU77" s="24">
-        <f t="shared" si="1"/>
-        <v>2084</v>
+        <f t="shared" si="5"/>
+        <v>1923.6923076923078</v>
       </c>
     </row>
     <row r="78" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -29481,9 +29592,9 @@
       <c r="AG78" s="15"/>
       <c r="AH78" s="16"/>
       <c r="AI78" s="24"/>
-      <c r="AJ78" s="46">
+      <c r="AJ78" s="45">
         <f>SUM(AJ77)</f>
-        <v>912.75</v>
+        <v>842.53846153846143</v>
       </c>
       <c r="AK78" s="24"/>
       <c r="AL78" s="22"/>
@@ -29588,11 +29699,11 @@
       </c>
       <c r="BT78" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="BU78" s="24">
-        <f t="shared" si="1"/>
-        <v>789</v>
+        <f t="shared" si="5"/>
+        <v>728.30769230769238</v>
       </c>
     </row>
     <row r="79" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -29698,11 +29809,11 @@
       </c>
       <c r="AI79" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ79" s="24">
         <f>AH79*AI79</f>
-        <v>15.364583333333334</v>
+        <v>14.182692307692308</v>
       </c>
       <c r="AL79" s="22"/>
       <c r="AM79" s="2" t="s">
@@ -29806,11 +29917,11 @@
       </c>
       <c r="BT79" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="BU79" s="24">
-        <f t="shared" si="1"/>
-        <v>111.33333333333331</v>
+        <f t="shared" si="5"/>
+        <v>102.76923076923077</v>
       </c>
     </row>
     <row r="80" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -29916,11 +30027,11 @@
       </c>
       <c r="AI80" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ80" s="24">
         <f>AH80*AI80</f>
-        <v>169.75</v>
+        <v>156.69230769230768</v>
       </c>
       <c r="AK80" s="24"/>
       <c r="AL80" s="2" t="s">
@@ -30025,11 +30136,11 @@
       </c>
       <c r="BT80" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="BU80" s="24">
-        <f t="shared" si="1"/>
-        <v>28.125</v>
+        <f t="shared" si="5"/>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="81" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -30068,9 +30179,9 @@
       <c r="AG81" s="15"/>
       <c r="AH81" s="16"/>
       <c r="AI81" s="24"/>
-      <c r="AJ81" s="46">
+      <c r="AJ81" s="45">
         <f>SUM(AJ79:AJ80)</f>
-        <v>185.11458333333334</v>
+        <v>170.875</v>
       </c>
       <c r="AK81" s="24"/>
       <c r="AL81" s="22"/>
@@ -30175,11 +30286,11 @@
       </c>
       <c r="BT81" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="BU81" s="24">
-        <f t="shared" si="1"/>
-        <v>28.125</v>
+        <f t="shared" si="5"/>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="82" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -30285,11 +30396,11 @@
       </c>
       <c r="AI82" s="24">
         <f>'Employee Salaries'!$E$2</f>
-        <v>32.552083333333329</v>
+        <v>30.048076923076923</v>
       </c>
       <c r="AJ82" s="24">
-        <f>AH82*AI82</f>
-        <v>211.26302083333331</v>
+        <f t="shared" ref="AJ82:AJ106" si="6">AH82*AI82</f>
+        <v>195.01201923076923</v>
       </c>
       <c r="AL82" s="2" t="s">
         <v>69</v>
@@ -30393,11 +30504,11 @@
       </c>
       <c r="BT82" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="BU82" s="24">
-        <f t="shared" si="1"/>
-        <v>550.5</v>
+        <f t="shared" si="5"/>
+        <v>508.15384615384613</v>
       </c>
     </row>
     <row r="83" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -30503,11 +30614,11 @@
       </c>
       <c r="AI83" s="24">
         <f>'Employee Salaries'!$E$4</f>
-        <v>36.979166666666671</v>
+        <v>34.134615384615387</v>
       </c>
       <c r="AJ83" s="24">
-        <f>AH83*AI83</f>
-        <v>2659.9114583333339</v>
+        <f t="shared" si="6"/>
+        <v>2455.3028846153852</v>
       </c>
       <c r="AL83" s="22"/>
       <c r="AM83" s="2" t="s">
@@ -30611,11 +30722,11 @@
       </c>
       <c r="BT83" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="BU83" s="24">
-        <f t="shared" si="1"/>
-        <v>536.625</v>
+        <f t="shared" si="5"/>
+        <v>495.34615384615381</v>
       </c>
     </row>
     <row r="84" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -30721,11 +30832,11 @@
       </c>
       <c r="AI84" s="24">
         <f>'Employee Salaries'!$E$6</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ84" s="24">
-        <f>AH84*AI84</f>
-        <v>1237.7604166666667</v>
+        <f t="shared" si="6"/>
+        <v>1142.5480769230771</v>
       </c>
       <c r="AL84" s="22"/>
       <c r="AM84" s="2" t="s">
@@ -30829,11 +30940,11 @@
       </c>
       <c r="BT84" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="BU84" s="24">
-        <f t="shared" si="1"/>
-        <v>13.875</v>
+        <f t="shared" si="5"/>
+        <v>12.807692307692307</v>
       </c>
     </row>
     <row r="85" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -30939,11 +31050,11 @@
       </c>
       <c r="AI85" s="24">
         <f>'Employee Salaries'!$E$8</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ85" s="24">
-        <f>AH85*AI85</f>
-        <v>867.39583333333337</v>
+        <f t="shared" si="6"/>
+        <v>800.67307692307702</v>
       </c>
       <c r="AL85" s="2" t="s">
         <v>71</v>
@@ -31047,11 +31158,11 @@
       </c>
       <c r="BT85" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="BU85" s="24">
-        <f t="shared" si="1"/>
-        <v>207.1875</v>
+        <f t="shared" si="5"/>
+        <v>191.25</v>
       </c>
     </row>
     <row r="86" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -31157,11 +31268,11 @@
       </c>
       <c r="AI86" s="24">
         <f>'Employee Salaries'!$E$10</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ86" s="24">
-        <f>AH86*AI86</f>
-        <v>293.51562500000006</v>
+        <f t="shared" si="6"/>
+        <v>270.9375</v>
       </c>
       <c r="AL86" s="22"/>
       <c r="AM86" s="2" t="s">
@@ -31265,11 +31376,11 @@
       </c>
       <c r="BT86" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="BU86" s="24">
-        <f t="shared" si="1"/>
-        <v>207.1875</v>
+        <f t="shared" si="5"/>
+        <v>191.25</v>
       </c>
     </row>
     <row r="87" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -31375,11 +31486,11 @@
       </c>
       <c r="AI87" s="24">
         <f>'Employee Salaries'!$E$12</f>
-        <v>28.645833333333332</v>
+        <v>26.442307692307693</v>
       </c>
       <c r="AJ87" s="24">
-        <f>AH87*AI87</f>
-        <v>1376.1458333333333</v>
+        <f t="shared" si="6"/>
+        <v>1270.2884615384617</v>
       </c>
       <c r="AL87" s="2" t="s">
         <v>72</v>
@@ -31483,11 +31594,11 @@
       </c>
       <c r="BT87" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU87" s="24">
-        <f t="shared" si="1"/>
-        <v>1744.25</v>
+        <f t="shared" si="5"/>
+        <v>1610.0769230769229</v>
       </c>
     </row>
     <row r="88" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -31593,11 +31704,11 @@
       </c>
       <c r="AI88" s="24">
         <f>'Employee Salaries'!$E$14</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ88" s="24">
-        <f>AH88*AI88</f>
-        <v>171.68749999999997</v>
+        <f t="shared" si="6"/>
+        <v>158.48076923076923</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="2" t="s">
@@ -31701,11 +31812,11 @@
       </c>
       <c r="BT88" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU88" s="24">
-        <f t="shared" si="1"/>
-        <v>912.75</v>
+        <f t="shared" si="5"/>
+        <v>842.53846153846143</v>
       </c>
     </row>
     <row r="89" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -31811,11 +31922,11 @@
       </c>
       <c r="AI89" s="24">
         <f>'Employee Salaries'!$E$16</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ89" s="24">
-        <f>AH89*AI89</f>
-        <v>554.94791666666663</v>
+        <f t="shared" si="6"/>
+        <v>512.25961538461536</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="2" t="s">
@@ -31919,11 +32030,11 @@
       </c>
       <c r="BT89" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU89" s="24">
-        <f t="shared" si="1"/>
-        <v>372.5</v>
+        <f t="shared" si="5"/>
+        <v>343.84615384615387</v>
       </c>
     </row>
     <row r="90" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -32029,11 +32140,11 @@
       </c>
       <c r="AI90" s="24">
         <f>'Employee Salaries'!$E$18</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ90" s="24">
-        <f>AH90*AI90</f>
-        <v>818.5</v>
+        <f t="shared" si="6"/>
+        <v>755.53846153846155</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="2" t="s">
@@ -32137,11 +32248,11 @@
       </c>
       <c r="BT90" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU90" s="24">
-        <f t="shared" si="1"/>
-        <v>169.75</v>
+        <f t="shared" si="5"/>
+        <v>156.69230769230768</v>
       </c>
     </row>
     <row r="91" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -32247,11 +32358,11 @@
       </c>
       <c r="AI91" s="24">
         <f>'Employee Salaries'!$E$20</f>
-        <v>24.479166666666664</v>
+        <v>22.596153846153847</v>
       </c>
       <c r="AJ91" s="24">
-        <f>AH91*AI91</f>
-        <v>252.86979166666666</v>
+        <f t="shared" si="6"/>
+        <v>233.41826923076923</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="2" t="s">
@@ -32355,11 +32466,11 @@
       </c>
       <c r="BT91" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU91" s="24">
-        <f t="shared" si="1"/>
-        <v>121.24999999999999</v>
+        <f t="shared" si="5"/>
+        <v>111.92307692307692</v>
       </c>
     </row>
     <row r="92" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -32465,11 +32576,11 @@
       </c>
       <c r="AI92" s="24">
         <f>'Employee Salaries'!$E$22</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ92" s="24">
-        <f>AH92*AI92</f>
-        <v>861.19791666666674</v>
+        <f t="shared" si="6"/>
+        <v>794.95192307692309</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="2" t="s">
@@ -32573,11 +32684,11 @@
       </c>
       <c r="BT92" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU92" s="24">
-        <f t="shared" si="1"/>
-        <v>110.75</v>
+        <f t="shared" si="5"/>
+        <v>102.23076923076923</v>
       </c>
     </row>
     <row r="93" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -32683,11 +32794,11 @@
       </c>
       <c r="AI93" s="24">
         <f>'Employee Salaries'!$E$24</f>
-        <v>23.958333333333336</v>
+        <v>22.115384615384617</v>
       </c>
       <c r="AJ93" s="24">
-        <f>AH93*AI93</f>
-        <v>497.61458333333337</v>
+        <f t="shared" si="6"/>
+        <v>459.33653846153845</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="2" t="s">
@@ -32791,11 +32902,11 @@
       </c>
       <c r="BT93" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="BU93" s="24">
-        <f t="shared" si="1"/>
-        <v>57.25</v>
+        <f t="shared" si="5"/>
+        <v>52.846153846153847</v>
       </c>
     </row>
     <row r="94" spans="1:73" ht="16" x14ac:dyDescent="0.2">
@@ -32901,11 +33012,11 @@
       </c>
       <c r="AI94" s="24">
         <f>'Employee Salaries'!$E$26</f>
-        <v>26.5625</v>
+        <v>24.51923076923077</v>
       </c>
       <c r="AJ94" s="24">
-        <f>AH94*AI94</f>
-        <v>529.390625</v>
+        <f t="shared" si="6"/>
+        <v>488.66826923076923</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="22"/>
@@ -33045,11 +33156,11 @@
       </c>
       <c r="AI95" s="24">
         <f>'Employee Salaries'!$E$28</f>
-        <v>41.666666666666671</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="AJ95" s="24">
-        <f>AH95*AI95</f>
-        <v>160.83333333333334</v>
+        <f t="shared" si="6"/>
+        <v>148.46153846153845</v>
       </c>
       <c r="AL95" s="1" t="s">
         <v>74</v>
@@ -33253,11 +33364,11 @@
       </c>
       <c r="AI96" s="24">
         <f>'Employee Salaries'!$E$30</f>
-        <v>36.458333333333329</v>
+        <v>33.653846153846153</v>
       </c>
       <c r="AJ96" s="24">
-        <f>AH96*AI96</f>
-        <v>55.052083333333329</v>
+        <f t="shared" si="6"/>
+        <v>50.817307692307693</v>
       </c>
     </row>
     <row r="97" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33363,11 +33474,11 @@
       </c>
       <c r="AI97" s="24">
         <f>'Employee Salaries'!$E$32</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ97" s="24">
-        <f>AH97*AI97</f>
-        <v>47.916666666666671</v>
+        <f t="shared" si="6"/>
+        <v>44.230769230769234</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33473,11 +33584,11 @@
       </c>
       <c r="AI98" s="24">
         <f>'Employee Salaries'!$E$36</f>
-        <v>25.520833333333336</v>
+        <v>23.557692307692307</v>
       </c>
       <c r="AJ98" s="24">
-        <f>AH98*AI98</f>
-        <v>91.109375</v>
+        <f t="shared" si="6"/>
+        <v>84.100961538461533</v>
       </c>
     </row>
     <row r="99" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33583,11 +33694,11 @@
       </c>
       <c r="AI99" s="24">
         <f>'Employee Salaries'!$E$38</f>
-        <v>33.854166666666671</v>
+        <v>31.25</v>
       </c>
       <c r="AJ99" s="24">
-        <f>AH99*AI99</f>
-        <v>459.40104166666674</v>
+        <f t="shared" si="6"/>
+        <v>424.0625</v>
       </c>
     </row>
     <row r="100" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33693,11 +33804,11 @@
       </c>
       <c r="AI100" s="24">
         <f>'Employee Salaries'!$E$42</f>
-        <v>26.041666666666668</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="AJ100" s="24">
-        <f>AH100*AI100</f>
-        <v>1618.4895833333333</v>
+        <f t="shared" si="6"/>
+        <v>1493.9903846153848</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33803,11 +33914,11 @@
       </c>
       <c r="AI101" s="24">
         <f>'Employee Salaries'!$E$44</f>
-        <v>34.895833333333329</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AJ101" s="24">
-        <f>AH101*AI101</f>
-        <v>1170.755208333333</v>
+        <f t="shared" si="6"/>
+        <v>1080.6971153846152</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -33913,11 +34024,11 @@
       </c>
       <c r="AI102" s="24">
         <f>'Employee Salaries'!$E$46</f>
-        <v>33.333333333333329</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="AJ102" s="24">
-        <f>AH102*AI102</f>
-        <v>2984.333333333333</v>
+        <f t="shared" si="6"/>
+        <v>2754.7692307692309</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -34023,11 +34134,11 @@
       </c>
       <c r="AI103" s="24">
         <f>'Employee Salaries'!$E$48</f>
-        <v>28.125</v>
+        <v>25.96153846153846</v>
       </c>
       <c r="AJ103" s="24">
-        <f>AH103*AI103</f>
-        <v>28.125</v>
+        <f t="shared" si="6"/>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -34133,11 +34244,11 @@
       </c>
       <c r="AI104" s="24">
         <f>'Employee Salaries'!$E$50</f>
-        <v>37.5</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="AJ104" s="24">
-        <f>AH104*AI104</f>
-        <v>550.5</v>
+        <f t="shared" si="6"/>
+        <v>508.15384615384613</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -34243,11 +34354,11 @@
       </c>
       <c r="AI105" s="24">
         <f>'Employee Salaries'!$E$52</f>
-        <v>31.25</v>
+        <v>28.846153846153847</v>
       </c>
       <c r="AJ105" s="24">
-        <f>AH105*AI105</f>
-        <v>207.1875</v>
+        <f t="shared" si="6"/>
+        <v>191.25</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -34353,11 +34464,11 @@
       </c>
       <c r="AI106" s="24">
         <f>'Employee Salaries'!$E$54</f>
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="AJ106" s="24">
-        <f>AH106*AI106</f>
-        <v>1744.25</v>
+        <f t="shared" si="6"/>
+        <v>1610.0769230769229</v>
       </c>
       <c r="AL106" s="24"/>
     </row>
@@ -34502,498 +34613,498 @@
       <c r="AJ108"/>
     </row>
     <row r="109" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
-      <c r="Q109" s="43"/>
-      <c r="R109" s="43"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="43"/>
-      <c r="U109" s="43"/>
-      <c r="V109" s="43"/>
-      <c r="W109" s="43"/>
-      <c r="X109" s="43"/>
-      <c r="Y109" s="43"/>
-      <c r="Z109" s="43"/>
-      <c r="AA109" s="43"/>
-      <c r="AB109" s="43"/>
-      <c r="AC109" s="43"/>
-      <c r="AD109" s="43"/>
-      <c r="AE109" s="43"/>
-      <c r="AF109" s="43"/>
-      <c r="AG109" s="43"/>
-      <c r="AH109" s="44"/>
-      <c r="AI109" s="40"/>
-      <c r="AJ109" s="40"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="42"/>
+      <c r="U109" s="42"/>
+      <c r="V109" s="42"/>
+      <c r="W109" s="42"/>
+      <c r="X109" s="42"/>
+      <c r="Y109" s="42"/>
+      <c r="Z109" s="42"/>
+      <c r="AA109" s="42"/>
+      <c r="AB109" s="42"/>
+      <c r="AC109" s="42"/>
+      <c r="AD109" s="42"/>
+      <c r="AE109" s="42"/>
+      <c r="AF109" s="42"/>
+      <c r="AG109" s="42"/>
+      <c r="AH109" s="43"/>
+      <c r="AI109" s="39"/>
+      <c r="AJ109" s="39"/>
     </row>
     <row r="110" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
-      <c r="Q110" s="43"/>
-      <c r="R110" s="43"/>
-      <c r="S110" s="43"/>
-      <c r="T110" s="43"/>
-      <c r="U110" s="43"/>
-      <c r="V110" s="43"/>
-      <c r="W110" s="43"/>
-      <c r="X110" s="43"/>
-      <c r="Y110" s="43"/>
-      <c r="Z110" s="43"/>
-      <c r="AA110" s="43"/>
-      <c r="AB110" s="43"/>
-      <c r="AC110" s="43"/>
-      <c r="AD110" s="43"/>
-      <c r="AE110" s="43"/>
-      <c r="AF110" s="43"/>
-      <c r="AG110" s="43"/>
-      <c r="AH110" s="44"/>
-      <c r="AI110" s="40"/>
-      <c r="AJ110" s="40"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="42"/>
+      <c r="T110" s="42"/>
+      <c r="U110" s="42"/>
+      <c r="V110" s="42"/>
+      <c r="W110" s="42"/>
+      <c r="X110" s="42"/>
+      <c r="Y110" s="42"/>
+      <c r="Z110" s="42"/>
+      <c r="AA110" s="42"/>
+      <c r="AB110" s="42"/>
+      <c r="AC110" s="42"/>
+      <c r="AD110" s="42"/>
+      <c r="AE110" s="42"/>
+      <c r="AF110" s="42"/>
+      <c r="AG110" s="42"/>
+      <c r="AH110" s="43"/>
+      <c r="AI110" s="39"/>
+      <c r="AJ110" s="39"/>
     </row>
     <row r="111" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="42"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="43"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="43"/>
-      <c r="Q111" s="43"/>
-      <c r="R111" s="43"/>
-      <c r="S111" s="43"/>
-      <c r="T111" s="43"/>
-      <c r="U111" s="43"/>
-      <c r="V111" s="43"/>
-      <c r="W111" s="43"/>
-      <c r="X111" s="43"/>
-      <c r="Y111" s="43"/>
-      <c r="Z111" s="43"/>
-      <c r="AA111" s="43"/>
-      <c r="AB111" s="43"/>
-      <c r="AC111" s="43"/>
-      <c r="AD111" s="43"/>
-      <c r="AE111" s="43"/>
-      <c r="AF111" s="43"/>
-      <c r="AG111" s="43"/>
-      <c r="AH111" s="44"/>
-      <c r="AI111" s="40"/>
-      <c r="AJ111" s="40"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="42"/>
+      <c r="V111" s="42"/>
+      <c r="W111" s="42"/>
+      <c r="X111" s="42"/>
+      <c r="Y111" s="42"/>
+      <c r="Z111" s="42"/>
+      <c r="AA111" s="42"/>
+      <c r="AB111" s="42"/>
+      <c r="AC111" s="42"/>
+      <c r="AD111" s="42"/>
+      <c r="AE111" s="42"/>
+      <c r="AF111" s="42"/>
+      <c r="AG111" s="42"/>
+      <c r="AH111" s="43"/>
+      <c r="AI111" s="39"/>
+      <c r="AJ111" s="39"/>
     </row>
     <row r="112" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="43"/>
-      <c r="O112" s="43"/>
-      <c r="P112" s="43"/>
-      <c r="Q112" s="43"/>
-      <c r="R112" s="43"/>
-      <c r="S112" s="43"/>
-      <c r="T112" s="43"/>
-      <c r="U112" s="43"/>
-      <c r="V112" s="43"/>
-      <c r="W112" s="43"/>
-      <c r="X112" s="43"/>
-      <c r="Y112" s="43"/>
-      <c r="Z112" s="43"/>
-      <c r="AA112" s="43"/>
-      <c r="AB112" s="43"/>
-      <c r="AC112" s="43"/>
-      <c r="AD112" s="43"/>
-      <c r="AE112" s="43"/>
-      <c r="AF112" s="43"/>
-      <c r="AG112" s="43"/>
-      <c r="AH112" s="44"/>
-      <c r="AI112" s="40"/>
-      <c r="AJ112" s="40"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="42"/>
+      <c r="T112" s="42"/>
+      <c r="U112" s="42"/>
+      <c r="V112" s="42"/>
+      <c r="W112" s="42"/>
+      <c r="X112" s="42"/>
+      <c r="Y112" s="42"/>
+      <c r="Z112" s="42"/>
+      <c r="AA112" s="42"/>
+      <c r="AB112" s="42"/>
+      <c r="AC112" s="42"/>
+      <c r="AD112" s="42"/>
+      <c r="AE112" s="42"/>
+      <c r="AF112" s="42"/>
+      <c r="AG112" s="42"/>
+      <c r="AH112" s="43"/>
+      <c r="AI112" s="39"/>
+      <c r="AJ112" s="39"/>
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
-      <c r="M113" s="43"/>
-      <c r="N113" s="43"/>
-      <c r="O113" s="43"/>
-      <c r="P113" s="43"/>
-      <c r="Q113" s="43"/>
-      <c r="R113" s="43"/>
-      <c r="S113" s="43"/>
-      <c r="T113" s="43"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="43"/>
-      <c r="W113" s="43"/>
-      <c r="X113" s="43"/>
-      <c r="Y113" s="43"/>
-      <c r="Z113" s="43"/>
-      <c r="AA113" s="43"/>
-      <c r="AB113" s="43"/>
-      <c r="AC113" s="43"/>
-      <c r="AD113" s="43"/>
-      <c r="AE113" s="43"/>
-      <c r="AF113" s="43"/>
-      <c r="AG113" s="43"/>
-      <c r="AH113" s="44"/>
-      <c r="AI113" s="40"/>
-      <c r="AJ113" s="40"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="42"/>
+      <c r="U113" s="42"/>
+      <c r="V113" s="42"/>
+      <c r="W113" s="42"/>
+      <c r="X113" s="42"/>
+      <c r="Y113" s="42"/>
+      <c r="Z113" s="42"/>
+      <c r="AA113" s="42"/>
+      <c r="AB113" s="42"/>
+      <c r="AC113" s="42"/>
+      <c r="AD113" s="42"/>
+      <c r="AE113" s="42"/>
+      <c r="AF113" s="42"/>
+      <c r="AG113" s="42"/>
+      <c r="AH113" s="43"/>
+      <c r="AI113" s="39"/>
+      <c r="AJ113" s="39"/>
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="42"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="43"/>
-      <c r="M114" s="43"/>
-      <c r="N114" s="43"/>
-      <c r="O114" s="43"/>
-      <c r="P114" s="43"/>
-      <c r="Q114" s="43"/>
-      <c r="R114" s="43"/>
-      <c r="S114" s="43"/>
-      <c r="T114" s="43"/>
-      <c r="U114" s="43"/>
-      <c r="V114" s="43"/>
-      <c r="W114" s="43"/>
-      <c r="X114" s="43"/>
-      <c r="Y114" s="43"/>
-      <c r="Z114" s="43"/>
-      <c r="AA114" s="43"/>
-      <c r="AB114" s="43"/>
-      <c r="AC114" s="43"/>
-      <c r="AD114" s="43"/>
-      <c r="AE114" s="43"/>
-      <c r="AF114" s="43"/>
-      <c r="AG114" s="43"/>
-      <c r="AH114" s="44"/>
-      <c r="AI114" s="40"/>
-      <c r="AJ114" s="40"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="42"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="42"/>
+      <c r="U114" s="42"/>
+      <c r="V114" s="42"/>
+      <c r="W114" s="42"/>
+      <c r="X114" s="42"/>
+      <c r="Y114" s="42"/>
+      <c r="Z114" s="42"/>
+      <c r="AA114" s="42"/>
+      <c r="AB114" s="42"/>
+      <c r="AC114" s="42"/>
+      <c r="AD114" s="42"/>
+      <c r="AE114" s="42"/>
+      <c r="AF114" s="42"/>
+      <c r="AG114" s="42"/>
+      <c r="AH114" s="43"/>
+      <c r="AI114" s="39"/>
+      <c r="AJ114" s="39"/>
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="42"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="43"/>
-      <c r="M115" s="43"/>
-      <c r="N115" s="43"/>
-      <c r="O115" s="43"/>
-      <c r="P115" s="43"/>
-      <c r="Q115" s="43"/>
-      <c r="R115" s="43"/>
-      <c r="S115" s="43"/>
-      <c r="T115" s="43"/>
-      <c r="U115" s="43"/>
-      <c r="V115" s="43"/>
-      <c r="W115" s="43"/>
-      <c r="X115" s="43"/>
-      <c r="Y115" s="43"/>
-      <c r="Z115" s="43"/>
-      <c r="AA115" s="43"/>
-      <c r="AB115" s="43"/>
-      <c r="AC115" s="43"/>
-      <c r="AD115" s="43"/>
-      <c r="AE115" s="43"/>
-      <c r="AF115" s="43"/>
-      <c r="AG115" s="43"/>
-      <c r="AH115" s="44"/>
-      <c r="AI115" s="40"/>
-      <c r="AJ115" s="40"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="42"/>
+      <c r="U115" s="42"/>
+      <c r="V115" s="42"/>
+      <c r="W115" s="42"/>
+      <c r="X115" s="42"/>
+      <c r="Y115" s="42"/>
+      <c r="Z115" s="42"/>
+      <c r="AA115" s="42"/>
+      <c r="AB115" s="42"/>
+      <c r="AC115" s="42"/>
+      <c r="AD115" s="42"/>
+      <c r="AE115" s="42"/>
+      <c r="AF115" s="42"/>
+      <c r="AG115" s="42"/>
+      <c r="AH115" s="43"/>
+      <c r="AI115" s="39"/>
+      <c r="AJ115" s="39"/>
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="43"/>
-      <c r="M116" s="43"/>
-      <c r="N116" s="43"/>
-      <c r="O116" s="43"/>
-      <c r="P116" s="43"/>
-      <c r="Q116" s="43"/>
-      <c r="R116" s="43"/>
-      <c r="S116" s="43"/>
-      <c r="T116" s="43"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
-      <c r="W116" s="43"/>
-      <c r="X116" s="43"/>
-      <c r="Y116" s="43"/>
-      <c r="Z116" s="43"/>
-      <c r="AA116" s="43"/>
-      <c r="AB116" s="43"/>
-      <c r="AC116" s="43"/>
-      <c r="AD116" s="43"/>
-      <c r="AE116" s="43"/>
-      <c r="AF116" s="43"/>
-      <c r="AG116" s="43"/>
-      <c r="AH116" s="44"/>
-      <c r="AI116" s="40"/>
-      <c r="AJ116" s="40"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="42"/>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="42"/>
+      <c r="T116" s="42"/>
+      <c r="U116" s="42"/>
+      <c r="V116" s="42"/>
+      <c r="W116" s="42"/>
+      <c r="X116" s="42"/>
+      <c r="Y116" s="42"/>
+      <c r="Z116" s="42"/>
+      <c r="AA116" s="42"/>
+      <c r="AB116" s="42"/>
+      <c r="AC116" s="42"/>
+      <c r="AD116" s="42"/>
+      <c r="AE116" s="42"/>
+      <c r="AF116" s="42"/>
+      <c r="AG116" s="42"/>
+      <c r="AH116" s="43"/>
+      <c r="AI116" s="39"/>
+      <c r="AJ116" s="39"/>
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="42"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="43"/>
-      <c r="P117" s="43"/>
-      <c r="Q117" s="43"/>
-      <c r="R117" s="43"/>
-      <c r="S117" s="43"/>
-      <c r="T117" s="43"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
-      <c r="W117" s="43"/>
-      <c r="X117" s="43"/>
-      <c r="Y117" s="43"/>
-      <c r="Z117" s="43"/>
-      <c r="AA117" s="43"/>
-      <c r="AB117" s="43"/>
-      <c r="AC117" s="43"/>
-      <c r="AD117" s="43"/>
-      <c r="AE117" s="43"/>
-      <c r="AF117" s="43"/>
-      <c r="AG117" s="43"/>
-      <c r="AH117" s="44"/>
-      <c r="AI117" s="40"/>
-      <c r="AJ117" s="40"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="42"/>
+      <c r="U117" s="42"/>
+      <c r="V117" s="42"/>
+      <c r="W117" s="42"/>
+      <c r="X117" s="42"/>
+      <c r="Y117" s="42"/>
+      <c r="Z117" s="42"/>
+      <c r="AA117" s="42"/>
+      <c r="AB117" s="42"/>
+      <c r="AC117" s="42"/>
+      <c r="AD117" s="42"/>
+      <c r="AE117" s="42"/>
+      <c r="AF117" s="42"/>
+      <c r="AG117" s="42"/>
+      <c r="AH117" s="43"/>
+      <c r="AI117" s="39"/>
+      <c r="AJ117" s="39"/>
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="42"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="43"/>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
-      <c r="R118" s="43"/>
-      <c r="S118" s="43"/>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="43"/>
-      <c r="X118" s="43"/>
-      <c r="Y118" s="43"/>
-      <c r="Z118" s="43"/>
-      <c r="AA118" s="43"/>
-      <c r="AB118" s="43"/>
-      <c r="AC118" s="43"/>
-      <c r="AD118" s="43"/>
-      <c r="AE118" s="43"/>
-      <c r="AF118" s="43"/>
-      <c r="AG118" s="43"/>
-      <c r="AH118" s="44"/>
-      <c r="AI118" s="40"/>
-      <c r="AJ118" s="40"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="42"/>
+      <c r="U118" s="42"/>
+      <c r="V118" s="42"/>
+      <c r="W118" s="42"/>
+      <c r="X118" s="42"/>
+      <c r="Y118" s="42"/>
+      <c r="Z118" s="42"/>
+      <c r="AA118" s="42"/>
+      <c r="AB118" s="42"/>
+      <c r="AC118" s="42"/>
+      <c r="AD118" s="42"/>
+      <c r="AE118" s="42"/>
+      <c r="AF118" s="42"/>
+      <c r="AG118" s="42"/>
+      <c r="AH118" s="43"/>
+      <c r="AI118" s="39"/>
+      <c r="AJ118" s="39"/>
     </row>
     <row r="119" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="42"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="43"/>
-      <c r="P119" s="43"/>
-      <c r="Q119" s="43"/>
-      <c r="R119" s="43"/>
-      <c r="S119" s="43"/>
-      <c r="T119" s="43"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
-      <c r="W119" s="43"/>
-      <c r="X119" s="43"/>
-      <c r="Y119" s="43"/>
-      <c r="Z119" s="43"/>
-      <c r="AA119" s="43"/>
-      <c r="AB119" s="43"/>
-      <c r="AC119" s="43"/>
-      <c r="AD119" s="43"/>
-      <c r="AE119" s="43"/>
-      <c r="AF119" s="43"/>
-      <c r="AG119" s="43"/>
-      <c r="AH119" s="44"/>
-      <c r="AI119" s="40"/>
-      <c r="AJ119" s="40"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="42"/>
+      <c r="U119" s="42"/>
+      <c r="V119" s="42"/>
+      <c r="W119" s="42"/>
+      <c r="X119" s="42"/>
+      <c r="Y119" s="42"/>
+      <c r="Z119" s="42"/>
+      <c r="AA119" s="42"/>
+      <c r="AB119" s="42"/>
+      <c r="AC119" s="42"/>
+      <c r="AD119" s="42"/>
+      <c r="AE119" s="42"/>
+      <c r="AF119" s="42"/>
+      <c r="AG119" s="42"/>
+      <c r="AH119" s="43"/>
+      <c r="AI119" s="39"/>
+      <c r="AJ119" s="39"/>
     </row>
     <row r="120" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="41"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="41"/>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="41"/>
-      <c r="X120" s="41"/>
-      <c r="Y120" s="41"/>
-      <c r="Z120" s="41"/>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="41"/>
-      <c r="AF120" s="41"/>
-      <c r="AG120" s="41"/>
-      <c r="AH120" s="41"/>
-      <c r="AI120" s="40"/>
-      <c r="AJ120" s="40"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="40"/>
+      <c r="Q120" s="40"/>
+      <c r="R120" s="40"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="40"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="40"/>
+      <c r="AF120" s="40"/>
+      <c r="AG120" s="40"/>
+      <c r="AH120" s="40"/>
+      <c r="AI120" s="39"/>
+      <c r="AJ120" s="39"/>
     </row>
     <row r="121" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
-      <c r="K121" s="44"/>
-      <c r="L121" s="44"/>
-      <c r="M121" s="44"/>
-      <c r="N121" s="44"/>
-      <c r="O121" s="44"/>
-      <c r="P121" s="44"/>
-      <c r="Q121" s="44"/>
-      <c r="R121" s="44"/>
-      <c r="S121" s="44"/>
-      <c r="T121" s="44"/>
-      <c r="U121" s="44"/>
-      <c r="V121" s="44"/>
-      <c r="W121" s="44"/>
-      <c r="X121" s="44"/>
-      <c r="Y121" s="44"/>
-      <c r="Z121" s="44"/>
-      <c r="AA121" s="44"/>
-      <c r="AB121" s="44"/>
-      <c r="AC121" s="44"/>
-      <c r="AD121" s="44"/>
-      <c r="AE121" s="44"/>
-      <c r="AF121" s="44"/>
-      <c r="AG121" s="44"/>
-      <c r="AH121" s="44"/>
-      <c r="AI121" s="40"/>
-      <c r="AJ121" s="40"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="43"/>
+      <c r="Q121" s="43"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
+      <c r="X121" s="43"/>
+      <c r="Y121" s="43"/>
+      <c r="Z121" s="43"/>
+      <c r="AA121" s="43"/>
+      <c r="AB121" s="43"/>
+      <c r="AC121" s="43"/>
+      <c r="AD121" s="43"/>
+      <c r="AE121" s="43"/>
+      <c r="AF121" s="43"/>
+      <c r="AG121" s="43"/>
+      <c r="AH121" s="43"/>
+      <c r="AI121" s="39"/>
+      <c r="AJ121" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:AJ108">
@@ -35018,7 +35129,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35039,19 +35150,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
@@ -35140,8 +35251,8 @@
         <v>12</v>
       </c>
       <c r="F5" s="34">
-        <f>C5/0.754</f>
-        <v>15915.649867374004</v>
+        <f>D5/0.754</f>
+        <v>16711.432360742707</v>
       </c>
       <c r="G5" s="36"/>
       <c r="I5" s="24"/>
@@ -35169,7 +35280,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H7" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -35180,19 +35291,19 @@
         <v>33</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="24">
         <f>F3</f>
@@ -35204,7 +35315,7 @@
       </c>
       <c r="D10" s="23">
         <f>F5</f>
-        <v>15915.649867374004</v>
+        <v>16711.432360742707</v>
       </c>
       <c r="E10" s="24">
         <f>G4</f>
@@ -35212,106 +35323,106 @@
       </c>
       <c r="F10" s="24">
         <f>SUM(B10:E10)</f>
-        <v>194151.34986737403</v>
+        <v>194947.13236074272</v>
       </c>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="24">
         <f>'Client Activities - Jibble Repo'!AL14</f>
-        <v>25517.15625</v>
+        <v>23554.298076923078</v>
       </c>
       <c r="C11" s="23">
         <f>'Client Activities - Jibble Repo'!AL20</f>
-        <v>22752.046875</v>
-      </c>
-      <c r="D11" s="51">
+        <v>21001.889423076926</v>
+      </c>
+      <c r="D11" s="47">
         <f>'Client Activities - Jibble Repo'!AL28</f>
-        <v>13798.604166666666</v>
+        <v>12737.173076923078</v>
       </c>
       <c r="E11" s="24">
         <f>'Client Activities - Jibble Repo'!AL39</f>
-        <v>13597.151041666668</v>
+        <v>12551.216346153846</v>
       </c>
       <c r="F11" s="24">
         <f>SUM(B11:E11)</f>
-        <v>75664.958333333328</v>
+        <v>69844.576923076922</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="24">
         <f>B10-B11</f>
-        <v>53616.243750000009</v>
+        <v>55579.101923076931</v>
       </c>
       <c r="C12" s="24">
         <f>C10-C11</f>
-        <v>53197.753125000003</v>
+        <v>54947.910576923081</v>
       </c>
       <c r="D12" s="24">
         <f>D10-D11</f>
-        <v>2117.0457007073383</v>
+        <v>3974.2592838196288</v>
       </c>
       <c r="E12" s="24">
         <f>E10-E11</f>
-        <v>9555.3489583333321</v>
+        <v>10601.283653846154</v>
       </c>
       <c r="F12" s="24">
         <f>F10-F11</f>
-        <v>118486.3915340407</v>
+        <v>125102.5554376658</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="52">
+        <v>102</v>
+      </c>
+      <c r="B13" s="48">
         <f>B12/B10</f>
-        <v>0.67754252629104783</v>
-      </c>
-      <c r="C13" s="52">
+        <v>0.70234694734558256</v>
+      </c>
+      <c r="C13" s="48">
         <f>C12/C10</f>
-        <v>0.70043309034388501</v>
-      </c>
-      <c r="D13" s="52">
+        <v>0.72347669877897081</v>
+      </c>
+      <c r="D13" s="48">
         <f>D12/D10</f>
-        <v>0.13301660430763418</v>
-      </c>
-      <c r="E13" s="52">
+        <v>0.23781679499572236</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12/E10</f>
-        <v>0.41271348486484538</v>
-      </c>
-      <c r="F13" s="52">
+        <v>0.45788937064447272</v>
+      </c>
+      <c r="F13" s="48">
         <f>F12/F10</f>
-        <v>0.61027848436273802</v>
+        <v>0.64172554847417795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="52">
+        <v>103</v>
+      </c>
+      <c r="B14" s="48">
         <f>B12/$F$10</f>
-        <v>0.27615694553051312</v>
-      </c>
-      <c r="C14" s="52">
+        <v>0.28509833025001763</v>
+      </c>
+      <c r="C14" s="48">
         <f>C12/$F$10</f>
-        <v>0.27400145897177491</v>
-      </c>
-      <c r="D14" s="52">
+        <v>0.28186057374388013</v>
+      </c>
+      <c r="D14" s="48">
         <f>D12/$F$10</f>
-        <v>1.0904099828064576E-2</v>
-      </c>
-      <c r="E14" s="52">
+        <v>2.0386343906128375E-2</v>
+      </c>
+      <c r="E14" s="48">
         <f>E12/$F$10</f>
-        <v>4.9215980032385295E-2</v>
-      </c>
-      <c r="F14" s="52"/>
+        <v>5.4380300574151851E-2</v>
+      </c>
+      <c r="F14" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35326,8 +35437,8 @@
   </sheetPr>
   <dimension ref="A1:J990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -35336,7 +35447,7 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="5" width="14.5" style="23"/>
-    <col min="6" max="6" width="14.5" style="40"/>
+    <col min="6" max="6" width="14.5" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -35349,21 +35460,19 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="F1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -35375,21 +35484,17 @@
       <c r="C2" s="18">
         <v>62500</v>
       </c>
-      <c r="D2" s="23">
-        <f>C2/12</f>
-        <v>5208.333333333333</v>
-      </c>
       <c r="E2" s="37">
-        <f>(D2/4)/40</f>
-        <v>32.552083333333329</v>
-      </c>
-      <c r="F2" s="40">
+        <f>C2/2080</f>
+        <v>30.048076923076923</v>
+      </c>
+      <c r="F2" s="39">
         <v>100</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -35410,15 +35515,11 @@
       <c r="C4" s="18">
         <v>71000</v>
       </c>
-      <c r="D4" s="23">
-        <f>C4/12</f>
-        <v>5916.666666666667</v>
-      </c>
       <c r="E4" s="37">
-        <f>(D4/4)/40</f>
-        <v>36.979166666666671</v>
-      </c>
-      <c r="F4" s="40">
+        <f>C4/2080</f>
+        <v>34.134615384615387</v>
+      </c>
+      <c r="F4" s="39">
         <v>120</v>
       </c>
     </row>
@@ -35438,15 +35539,11 @@
       <c r="C6" s="18">
         <v>50000</v>
       </c>
-      <c r="D6" s="23">
-        <f>C6/12</f>
-        <v>4166.666666666667</v>
-      </c>
       <c r="E6" s="37">
-        <f>(D6/4)/40</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="F6" s="40">
+        <f>C6/2080</f>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="F6" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35466,15 +35563,11 @@
       <c r="C8" s="18">
         <v>55000</v>
       </c>
-      <c r="D8" s="23">
-        <f>C8/12</f>
-        <v>4583.333333333333</v>
-      </c>
       <c r="E8" s="37">
-        <f>(D8/4)/40</f>
-        <v>28.645833333333332</v>
-      </c>
-      <c r="F8" s="40">
+        <f>C8/2080</f>
+        <v>26.442307692307693</v>
+      </c>
+      <c r="F8" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35494,23 +35587,21 @@
       <c r="C10" s="18">
         <v>65000</v>
       </c>
-      <c r="D10" s="23">
-        <f>C10/12</f>
-        <v>5416.666666666667</v>
-      </c>
       <c r="E10" s="37">
-        <f>(D10/4)/40</f>
-        <v>33.854166666666671</v>
-      </c>
-      <c r="F10" s="40">
+        <f>C10/2080</f>
+        <v>31.25</v>
+      </c>
+      <c r="F10" s="39">
         <v>100</v>
       </c>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="E11" s="37"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -35522,15 +35613,11 @@
       <c r="C12" s="18">
         <v>55000</v>
       </c>
-      <c r="D12" s="23">
-        <f>C12/12</f>
-        <v>4583.333333333333</v>
-      </c>
       <c r="E12" s="37">
-        <f>(D12/4)/40</f>
-        <v>28.645833333333332</v>
-      </c>
-      <c r="F12" s="40">
+        <f>C12/2080</f>
+        <v>26.442307692307693</v>
+      </c>
+      <c r="F12" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35550,15 +35637,11 @@
       <c r="C14" s="18">
         <v>67000</v>
       </c>
-      <c r="D14" s="23">
-        <f>C14/12</f>
-        <v>5583.333333333333</v>
-      </c>
       <c r="E14" s="37">
-        <f>(D14/4)/40</f>
-        <v>34.895833333333329</v>
-      </c>
-      <c r="F14" s="40">
+        <f>C14/2080</f>
+        <v>32.21153846153846</v>
+      </c>
+      <c r="F14" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35578,15 +35661,11 @@
       <c r="C16" s="18">
         <v>50000</v>
       </c>
-      <c r="D16" s="23">
-        <f>C16/12</f>
-        <v>4166.666666666667</v>
-      </c>
       <c r="E16" s="37">
-        <f>(D16/4)/40</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="F16" s="40">
+        <f>C16/2080</f>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="F16" s="39">
         <v>90</v>
       </c>
     </row>
@@ -35606,15 +35685,11 @@
       <c r="C18" s="18">
         <v>48000</v>
       </c>
-      <c r="D18" s="23">
-        <f>C18/12</f>
-        <v>4000</v>
-      </c>
       <c r="E18" s="37">
-        <f>(D18/4)/40</f>
-        <v>25</v>
-      </c>
-      <c r="F18" s="40">
+        <f>C18/2080</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F18" s="39">
         <v>80</v>
       </c>
     </row>
@@ -35634,15 +35709,11 @@
       <c r="C20" s="18">
         <v>47000</v>
       </c>
-      <c r="D20" s="23">
-        <f>C20/12</f>
-        <v>3916.6666666666665</v>
-      </c>
       <c r="E20" s="37">
-        <f>(D20/4)/40</f>
-        <v>24.479166666666664</v>
-      </c>
-      <c r="F20" s="40">
+        <f>C20/2080</f>
+        <v>22.596153846153847</v>
+      </c>
+      <c r="F20" s="39">
         <v>90</v>
       </c>
     </row>
@@ -35662,15 +35733,11 @@
       <c r="C22" s="18">
         <v>50000</v>
       </c>
-      <c r="D22" s="23">
-        <f>C22/12</f>
-        <v>4166.666666666667</v>
-      </c>
       <c r="E22" s="37">
-        <f>(D22/4)/40</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="F22" s="40">
+        <f>C22/2080</f>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="F22" s="39">
         <v>90</v>
       </c>
     </row>
@@ -35690,15 +35757,11 @@
       <c r="C24" s="18">
         <v>46000</v>
       </c>
-      <c r="D24" s="23">
-        <f>C24/12</f>
-        <v>3833.3333333333335</v>
-      </c>
       <c r="E24" s="37">
-        <f>(D24/4)/40</f>
-        <v>23.958333333333336</v>
-      </c>
-      <c r="F24" s="40">
+        <f>C24/2080</f>
+        <v>22.115384615384617</v>
+      </c>
+      <c r="F24" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35718,15 +35781,11 @@
       <c r="C26" s="18">
         <v>51000</v>
       </c>
-      <c r="D26" s="23">
-        <f>C26/12</f>
-        <v>4250</v>
-      </c>
       <c r="E26" s="37">
-        <f>(D26/4)/40</f>
-        <v>26.5625</v>
-      </c>
-      <c r="F26" s="40">
+        <f>C26/2080</f>
+        <v>24.51923076923077</v>
+      </c>
+      <c r="F26" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35746,15 +35805,11 @@
       <c r="C28" s="18">
         <v>80000</v>
       </c>
-      <c r="D28" s="23">
-        <f>C28/12</f>
-        <v>6666.666666666667</v>
-      </c>
       <c r="E28" s="37">
-        <f>(D28/4)/40</f>
-        <v>41.666666666666671</v>
-      </c>
-      <c r="F28" s="40">
+        <f>C28/2080</f>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F28" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35774,15 +35829,11 @@
       <c r="C30" s="18">
         <v>70000</v>
       </c>
-      <c r="D30" s="23">
-        <f>C30/12</f>
-        <v>5833.333333333333</v>
-      </c>
       <c r="E30" s="37">
-        <f>(D30/4)/40</f>
-        <v>36.458333333333329</v>
-      </c>
-      <c r="F30" s="40">
+        <f>C30/2080</f>
+        <v>33.653846153846153</v>
+      </c>
+      <c r="F30" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35802,15 +35853,11 @@
       <c r="C32" s="18">
         <v>50000</v>
       </c>
-      <c r="D32" s="23">
-        <f>C32/12</f>
-        <v>4166.666666666667</v>
-      </c>
       <c r="E32" s="37">
-        <f>(D32/4)/40</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="F32" s="40">
+        <f>C32/2080</f>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="F32" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35830,15 +35877,11 @@
       <c r="C34" s="18">
         <v>60000</v>
       </c>
-      <c r="D34" s="23">
-        <f>C34/12</f>
-        <v>5000</v>
-      </c>
       <c r="E34" s="37">
-        <f>(D34/4)/40</f>
-        <v>31.25</v>
-      </c>
-      <c r="F34" s="40">
+        <f>C34/2080</f>
+        <v>28.846153846153847</v>
+      </c>
+      <c r="F34" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35858,15 +35901,11 @@
       <c r="C36" s="18">
         <v>49000</v>
       </c>
-      <c r="D36" s="23">
-        <f>C36/12</f>
-        <v>4083.3333333333335</v>
-      </c>
       <c r="E36" s="37">
-        <f>(D36/4)/40</f>
-        <v>25.520833333333336</v>
-      </c>
-      <c r="F36" s="40">
+        <f>C36/2080</f>
+        <v>23.557692307692307</v>
+      </c>
+      <c r="F36" s="39">
         <v>80</v>
       </c>
     </row>
@@ -35886,15 +35925,11 @@
       <c r="C38" s="18">
         <v>65000</v>
       </c>
-      <c r="D38" s="23">
-        <f>C38/12</f>
-        <v>5416.666666666667</v>
-      </c>
       <c r="E38" s="37">
-        <f>(D38/4)/40</f>
-        <v>33.854166666666671</v>
-      </c>
-      <c r="F38" s="40">
+        <f>C38/2080</f>
+        <v>31.25</v>
+      </c>
+      <c r="F38" s="39">
         <v>120</v>
       </c>
     </row>
@@ -35914,15 +35949,11 @@
       <c r="C40" s="18">
         <v>60000</v>
       </c>
-      <c r="D40" s="23">
-        <f>C40/12</f>
-        <v>5000</v>
-      </c>
       <c r="E40" s="37">
-        <f>(D40/4)/40</f>
-        <v>31.25</v>
-      </c>
-      <c r="F40" s="40">
+        <f>C40/2080</f>
+        <v>28.846153846153847</v>
+      </c>
+      <c r="F40" s="39">
         <v>90</v>
       </c>
     </row>
@@ -35942,15 +35973,11 @@
       <c r="C42" s="18">
         <v>50000</v>
       </c>
-      <c r="D42" s="23">
-        <f>C42/12</f>
-        <v>4166.666666666667</v>
-      </c>
       <c r="E42" s="37">
-        <f>(D42/4)/40</f>
-        <v>26.041666666666668</v>
-      </c>
-      <c r="F42" s="40">
+        <f>C42/2080</f>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="F42" s="39">
         <v>110</v>
       </c>
     </row>
@@ -35970,15 +35997,11 @@
       <c r="C44" s="18">
         <v>67000</v>
       </c>
-      <c r="D44" s="23">
-        <f>C44/12</f>
-        <v>5583.333333333333</v>
-      </c>
       <c r="E44" s="37">
-        <f>(D44/4)/40</f>
-        <v>34.895833333333329</v>
-      </c>
-      <c r="F44" s="40">
+        <f>C44/2080</f>
+        <v>32.21153846153846</v>
+      </c>
+      <c r="F44" s="39">
         <v>100</v>
       </c>
     </row>
@@ -35998,15 +36021,11 @@
       <c r="C46" s="18">
         <v>64000</v>
       </c>
-      <c r="D46" s="23">
-        <f>C46/12</f>
-        <v>5333.333333333333</v>
-      </c>
       <c r="E46" s="37">
-        <f>(D46/4)/40</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="F46" s="40">
+        <f>C46/2080</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="F46" s="39">
         <v>120</v>
       </c>
     </row>
@@ -36026,15 +36045,11 @@
       <c r="C48" s="18">
         <v>54000</v>
       </c>
-      <c r="D48" s="23">
-        <f>C48/12</f>
-        <v>4500</v>
-      </c>
       <c r="E48" s="37">
-        <f>(D48/4)/40</f>
-        <v>28.125</v>
-      </c>
-      <c r="F48" s="40">
+        <f>C48/2080</f>
+        <v>25.96153846153846</v>
+      </c>
+      <c r="F48" s="39">
         <v>100</v>
       </c>
     </row>
@@ -36054,15 +36069,11 @@
       <c r="C50" s="18">
         <v>72000</v>
       </c>
-      <c r="D50" s="23">
-        <f>C50/12</f>
-        <v>6000</v>
-      </c>
       <c r="E50" s="37">
-        <f>(D50/4)/40</f>
-        <v>37.5</v>
-      </c>
-      <c r="F50" s="40">
+        <f>C50/2080</f>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="F50" s="39">
         <v>100</v>
       </c>
     </row>
@@ -36082,15 +36093,11 @@
       <c r="C52" s="18">
         <v>60000</v>
       </c>
-      <c r="D52" s="23">
-        <f>C52/12</f>
-        <v>5000</v>
-      </c>
       <c r="E52" s="37">
-        <f>(D52/4)/40</f>
-        <v>31.25</v>
-      </c>
-      <c r="F52" s="40">
+        <f>C52/2080</f>
+        <v>28.846153846153847</v>
+      </c>
+      <c r="F52" s="39">
         <v>90</v>
       </c>
     </row>
@@ -36110,15 +36117,11 @@
       <c r="C54" s="18">
         <v>48000</v>
       </c>
-      <c r="D54" s="23">
-        <f>C54/12</f>
-        <v>4000</v>
-      </c>
       <c r="E54" s="37">
-        <f>(D54/4)/40</f>
-        <v>25</v>
-      </c>
-      <c r="F54" s="40">
+        <f>C54/2080</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F54" s="39">
         <v>110</v>
       </c>
     </row>
